--- a/AAII_Financials/Quarterly/ADPT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADPT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>ADPT</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,168 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>24200</v>
+      </c>
+      <c r="F8" s="3">
         <v>26100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>22100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>12700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>55700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>17200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>11600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>9700</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F9" s="3">
         <v>5600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>5700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>5000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>19700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>5400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>5000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4000</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>18200</v>
+      </c>
+      <c r="F10" s="3">
         <v>20500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>16400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>7700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>36000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>11800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>6600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>5700</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,37 +838,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>21200</v>
+      </c>
+      <c r="F12" s="3">
         <v>20500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>16500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>12500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>39200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>9800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>9500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>8900</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +904,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +939,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -915,22 +960,28 @@
         <v>400</v>
       </c>
       <c r="G15" s="3">
-        <v>1700</v>
+        <v>400</v>
       </c>
       <c r="H15" s="3">
         <v>400</v>
       </c>
       <c r="I15" s="3">
-        <v>400</v>
+        <v>1700</v>
       </c>
       <c r="J15" s="3">
         <v>400</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>400</v>
+      </c>
+      <c r="L15" s="3">
+        <v>400</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>55500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>48400</v>
+      </c>
+      <c r="F17" s="3">
         <v>44100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>38200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>32700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>105400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>26300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>24900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>22900</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-18000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-16100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-20000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-49700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-9100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-13300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-13200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,66 +1075,80 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F20" s="3">
         <v>4100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>3300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-11900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-13800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-16600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-40400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-6800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-11000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-10900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,66 +1176,84 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-14000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-15700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-18400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-46400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-8300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-12500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-12400</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+        <v>-300</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-14000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-15700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-18400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-46400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-8300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-12500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-12400</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-14000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-16400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-18600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-46300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-8300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-12500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-12400</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-4100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-3300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-14000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-16400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-18600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-46300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-8300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-12500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-12400</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-14000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-16400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-18600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-46300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-8300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-12500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-12400</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,26 +1705,28 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>212700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>96600</v>
+      </c>
+      <c r="F41" s="3">
         <v>74900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>48500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>111300</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1563,26 +1736,32 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>342500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>480300</v>
+      </c>
+      <c r="F42" s="3">
         <v>498500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>374500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>329200</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1592,26 +1771,32 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F43" s="3">
         <v>9300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>7300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>4100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1621,26 +1806,32 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F44" s="3">
         <v>8700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>8000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>7900</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1650,26 +1841,32 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F45" s="3">
         <v>10000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>4000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>6800</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1679,26 +1876,32 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>584600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>612700</v>
+      </c>
+      <c r="F46" s="3">
         <v>601400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>442300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>459100</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1708,20 +1911,26 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>100600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>105400</v>
+      </c>
+      <c r="F47" s="3">
         <v>135300</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1737,26 +1946,32 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>60400</v>
+      </c>
+      <c r="F48" s="3">
         <v>46500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>22300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>21200</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1766,26 +1981,32 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>130500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>130900</v>
+      </c>
+      <c r="F49" s="3">
         <v>131300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>131800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>132200</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1795,8 +2016,14 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,26 +2086,32 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E52" s="3">
         <v>2900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G52" s="3">
         <v>5000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2100</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1882,8 +2121,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,26 +2156,32 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>874900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>912300</v>
+      </c>
+      <c r="F54" s="3">
         <v>917400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>601400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>614600</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1940,8 +2191,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,26 +2225,28 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F57" s="3">
         <v>2400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3300</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1995,8 +2256,14 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2024,26 +2291,32 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>74100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>73900</v>
+      </c>
+      <c r="F59" s="3">
         <v>71000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>71900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>60000</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2053,26 +2326,32 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>78300</v>
+      </c>
+      <c r="F60" s="3">
         <v>73400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>74900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>63300</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2082,26 +2361,32 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>36600</v>
+      </c>
+      <c r="F61" s="3">
         <v>23400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2111,26 +2396,32 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>245400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>226300</v>
+      </c>
+      <c r="F62" s="3">
         <v>234600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>246400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>263200</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2140,8 +2431,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,26 +2536,32 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>323300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>341300</v>
+      </c>
+      <c r="F66" s="3">
         <v>331500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>323800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>326800</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2256,8 +2571,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2336,17 +2671,17 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>561900</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>561200</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,26 +2726,32 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-396800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-365500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-344900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-330900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-314500</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2761,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,26 +2866,32 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>551600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>571000</v>
+      </c>
+      <c r="F76" s="3">
         <v>585900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-284400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-273500</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,8 +2901,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-14000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-16400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-18600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-46300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-8300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-12500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-12400</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,37 +3030,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G83" s="3">
         <v>1900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>1800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>6000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1500</v>
       </c>
       <c r="J83" s="3">
         <v>1500</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-30100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-16000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>278300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-32300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-11700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-9100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-6100</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3290,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-3800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-6300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-2200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>142800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>46700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-260900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-45300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-222200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>5100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>4700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-36700</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,37 +3581,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F100" s="3">
         <v>319600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1500</v>
-      </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
-      <c r="G100" s="3">
-        <v>1200</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,33 +3651,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>116100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>21600</v>
+      </c>
+      <c r="F102" s="3">
         <v>28600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-62800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>56300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-30300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-6500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-4000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-42300</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADPT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADPT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E8" s="3">
         <v>20900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>24200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>26100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>22100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12700</v>
-      </c>
-      <c r="I8" s="3">
-        <v>55700</v>
       </c>
       <c r="J8" s="3">
         <v>17200</v>
       </c>
       <c r="K8" s="3">
+        <v>17200</v>
+      </c>
+      <c r="L8" s="3">
         <v>11600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9700</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E9" s="3">
         <v>5300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5000</v>
       </c>
-      <c r="I9" s="3">
-        <v>19700</v>
-      </c>
       <c r="J9" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K9" s="3">
         <v>5400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4000</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E10" s="3">
         <v>15600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>18200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>20500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>16400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7700</v>
       </c>
-      <c r="I10" s="3">
-        <v>36000</v>
-      </c>
       <c r="J10" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K10" s="3">
         <v>11800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5700</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,43 +853,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E12" s="3">
         <v>23900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>21200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>20500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>16500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>12500</v>
       </c>
-      <c r="I12" s="3">
-        <v>39200</v>
-      </c>
       <c r="J12" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K12" s="3">
         <v>9800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8900</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +965,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -966,7 +989,7 @@
         <v>400</v>
       </c>
       <c r="I15" s="3">
-        <v>1700</v>
+        <v>400</v>
       </c>
       <c r="J15" s="3">
         <v>400</v>
@@ -977,11 +1000,14 @@
       <c r="L15" s="3">
         <v>400</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>400</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E17" s="3">
         <v>55500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>48400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>44100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>38200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>32700</v>
       </c>
-      <c r="I17" s="3">
-        <v>105400</v>
-      </c>
       <c r="J17" s="3">
+        <v>31300</v>
+      </c>
+      <c r="K17" s="3">
         <v>26300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>24900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>22900</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-36900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-34600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-24200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-18000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-16100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-20000</v>
       </c>
-      <c r="I18" s="3">
-        <v>-49700</v>
-      </c>
       <c r="J18" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-9100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-13300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-13200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,78 +1110,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E20" s="3">
         <v>2900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1600</v>
-      </c>
-      <c r="I20" s="3">
-        <v>3300</v>
       </c>
       <c r="J20" s="3">
         <v>900</v>
       </c>
       <c r="K20" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>800</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-29700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-18500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-11900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-13800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-16600</v>
       </c>
-      <c r="I21" s="3">
-        <v>-40400</v>
-      </c>
       <c r="J21" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="K21" s="3">
         <v>-6800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-11000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-10900</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,52 +1222,58 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-31700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-20600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-14000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-15700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-18400</v>
       </c>
-      <c r="I23" s="3">
-        <v>-46400</v>
-      </c>
       <c r="J23" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-8300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-12400</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-300</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1243,8 +1289,8 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1252,8 +1298,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-31400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-20600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-14000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-15700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-18400</v>
       </c>
-      <c r="I26" s="3">
-        <v>-46400</v>
-      </c>
       <c r="J26" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-8300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12400</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-31400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-20600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-14000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-16400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-18600</v>
       </c>
-      <c r="I27" s="3">
-        <v>-46300</v>
-      </c>
       <c r="J27" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-8300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-12400</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1600</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-3300</v>
       </c>
       <c r="J32" s="3">
         <v>-900</v>
       </c>
       <c r="K32" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-31400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-20600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-14000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-16400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-18600</v>
       </c>
-      <c r="I33" s="3">
-        <v>-46300</v>
-      </c>
       <c r="J33" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-8300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-12400</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-31400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-20600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-14000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-16400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-18600</v>
       </c>
-      <c r="I35" s="3">
-        <v>-46300</v>
-      </c>
       <c r="J35" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-8300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-12400</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,29 +1793,30 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>365400</v>
+      </c>
+      <c r="E41" s="3">
         <v>212700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>96600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>74900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>48500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>111300</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1742,29 +1829,32 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>204900</v>
+      </c>
+      <c r="E42" s="3">
         <v>342500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>480300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>498500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>374500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>329200</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1777,29 +1867,32 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E43" s="3">
         <v>9400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1812,8 +1905,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1821,20 +1917,20 @@
         <v>10500</v>
       </c>
       <c r="E44" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F44" s="3">
         <v>9100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>8700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>8000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>7900</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1847,29 +1943,32 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E45" s="3">
         <v>9600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6800</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1882,29 +1981,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>599500</v>
+      </c>
+      <c r="E46" s="3">
         <v>584600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>612700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>601400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>442300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>459100</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1917,23 +2019,26 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>57400</v>
+      </c>
+      <c r="E47" s="3">
         <v>100600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>105400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>135300</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1952,29 +2057,32 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>64500</v>
+      </c>
+      <c r="E48" s="3">
         <v>56000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>60400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>46500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>22300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>21200</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1987,29 +2095,32 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>130100</v>
+      </c>
+      <c r="E49" s="3">
         <v>130500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>130900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>131300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>131800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>132200</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,29 +2209,32 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E52" s="3">
         <v>3100</v>
-      </c>
-      <c r="E52" s="3">
-        <v>2900</v>
       </c>
       <c r="F52" s="3">
         <v>2900</v>
       </c>
       <c r="G52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H52" s="3">
         <v>5000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,29 +2285,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>854800</v>
+      </c>
+      <c r="E54" s="3">
         <v>874900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>912300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>917400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>601400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>614600</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2197,8 +2323,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,29 +2357,30 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E57" s="3">
         <v>3900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3300</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2262,8 +2393,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2297,29 +2431,32 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>89700</v>
+      </c>
+      <c r="E59" s="3">
         <v>74100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>73900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>71000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>71900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>60000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2332,29 +2469,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>93400</v>
+      </c>
+      <c r="E60" s="3">
         <v>78000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>78300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>73400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>74900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>63300</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2367,8 +2507,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2376,20 +2519,20 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>36600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>23400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>400</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2402,29 +2545,32 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>231500</v>
+      </c>
+      <c r="E62" s="3">
         <v>245400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>226300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>234600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>246400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>263200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,29 +2697,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>324900</v>
+      </c>
+      <c r="E66" s="3">
         <v>323300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>341300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>331500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>323800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>326800</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2577,8 +2735,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2677,14 +2845,14 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>561900</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>561200</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,29 +2903,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-430300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-396800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-365500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-344900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-330900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-314500</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2767,8 +2941,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,29 +3055,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>529900</v>
+      </c>
+      <c r="E76" s="3">
         <v>551600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>571000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>585900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-284400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-273500</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2907,8 +3093,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-31400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-20600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-14000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-16400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-18600</v>
       </c>
-      <c r="I81" s="3">
-        <v>-46300</v>
-      </c>
       <c r="J81" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-8300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-12400</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3041,22 +3240,22 @@
         <v>2000</v>
       </c>
       <c r="E83" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F83" s="3">
         <v>2100</v>
       </c>
       <c r="G83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H83" s="3">
         <v>1900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1800</v>
       </c>
-      <c r="I83" s="3">
-        <v>6000</v>
-      </c>
       <c r="J83" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K83" s="3">
         <v>1500</v>
@@ -3064,11 +3263,14 @@
       <c r="L83" s="3">
         <v>1500</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-31600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-26800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-30100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-16000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>278300</v>
       </c>
-      <c r="I89" s="3">
-        <v>-32300</v>
-      </c>
       <c r="J89" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-11700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6100</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3512,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3800</v>
       </c>
-      <c r="I91" s="3">
-        <v>-6300</v>
-      </c>
       <c r="J91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>177500</v>
+      </c>
+      <c r="E94" s="3">
         <v>142800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>46700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-260900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-45300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-222200</v>
       </c>
-      <c r="I94" s="3">
-        <v>700</v>
-      </c>
       <c r="J94" s="3">
+        <v>27600</v>
+      </c>
+      <c r="K94" s="3">
         <v>5100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>4700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-36700</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,43 +3830,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E100" s="3">
         <v>5000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>319600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>1200</v>
-      </c>
       <c r="J100" s="3">
+        <v>300</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,39 +3906,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>152800</v>
+      </c>
+      <c r="E102" s="3">
         <v>116100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>21600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>28600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-62800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>56300</v>
       </c>
-      <c r="I102" s="3">
-        <v>-30300</v>
-      </c>
       <c r="J102" s="3">
+        <v>22500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-6500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-42300</v>
       </c>
-      <c r="M102" s="3" t="s">
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADPT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADPT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,194 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E8" s="3">
         <v>21000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>20900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>24200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>26100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>22100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12700</v>
-      </c>
-      <c r="J8" s="3">
-        <v>17200</v>
       </c>
       <c r="K8" s="3">
         <v>17200</v>
       </c>
       <c r="L8" s="3">
+        <v>17200</v>
+      </c>
+      <c r="M8" s="3">
         <v>11600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9700</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E9" s="3">
         <v>4900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4000</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E10" s="3">
         <v>16100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>15600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>18200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>20500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>16400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>11900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5700</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,46 +867,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E12" s="3">
         <v>26000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>23900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>21200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>20500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>16500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>12500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>11100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8900</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +947,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,8 +988,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1003,11 +1026,14 @@
       <c r="M15" s="3">
         <v>400</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>400</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>63300</v>
+      </c>
+      <c r="E17" s="3">
         <v>57900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>55500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>48400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>44100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>38200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>32700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>31300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>26300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>24900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>22900</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-36900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-34600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-24200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-18000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-16100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-20000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-14100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-13300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-13200</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,84 +1144,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1600</v>
-      </c>
-      <c r="J20" s="3">
-        <v>900</v>
       </c>
       <c r="K20" s="3">
         <v>900</v>
       </c>
       <c r="L20" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>800</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-33000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-29700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-18500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-11900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-13800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-16600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-11700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-11000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-10900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,58 +1265,64 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-35000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-31700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-20600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-14000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-15700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-18400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-13300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-12500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-12400</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1292,8 +1338,8 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1301,8 +1347,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-33500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-31400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-20600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-14000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-15700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-18400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-13300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-12400</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-33500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-31400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-20600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-14000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-16400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-18600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-13200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-12500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-12400</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1634,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1600</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-900</v>
       </c>
       <c r="K32" s="3">
         <v>-900</v>
       </c>
       <c r="L32" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-33500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-31400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-20600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-14000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-16400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-18600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-13200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-12500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-12400</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-33500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-31400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-20600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-14000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-16400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-18600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-13200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-12500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-12400</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,32 +1880,33 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>497100</v>
+      </c>
+      <c r="E41" s="3">
         <v>365400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>212700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>96600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>74900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>48500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>111300</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1832,32 +1919,35 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>338000</v>
+      </c>
+      <c r="E42" s="3">
         <v>204900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>342500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>480300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>498500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>374500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>329200</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1870,32 +1960,35 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E43" s="3">
         <v>7900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4100</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1908,32 +2001,35 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="E44" s="3">
         <v>10500</v>
       </c>
       <c r="F44" s="3">
+        <v>10500</v>
+      </c>
+      <c r="G44" s="3">
         <v>9100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>8700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>8000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>7900</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1946,32 +2042,35 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E45" s="3">
         <v>10700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6800</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1984,32 +2083,35 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>877400</v>
+      </c>
+      <c r="E46" s="3">
         <v>599500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>584600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>612700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>601400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>442300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>459100</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,26 +2124,29 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E47" s="3">
         <v>57400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>100600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>105400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>135300</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2060,32 +2165,35 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>68900</v>
+      </c>
+      <c r="E48" s="3">
         <v>64500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>56000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>60400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>46500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>22300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>21200</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,32 +2206,35 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>129600</v>
+      </c>
+      <c r="E49" s="3">
         <v>130100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>130500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>130900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>131300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>131800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>132200</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2136,8 +2247,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,32 +2329,35 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E52" s="3">
         <v>3400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3100</v>
-      </c>
-      <c r="F52" s="3">
-        <v>2900</v>
       </c>
       <c r="G52" s="3">
         <v>2900</v>
       </c>
       <c r="H52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I52" s="3">
         <v>5000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2250,8 +2370,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,32 +2411,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1095500</v>
+      </c>
+      <c r="E54" s="3">
         <v>854800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>874900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>912300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>917400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>601400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>614600</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2326,8 +2452,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,32 +2488,33 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E57" s="3">
         <v>3700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3300</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2396,8 +2527,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2434,32 +2568,35 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>95400</v>
+      </c>
+      <c r="E59" s="3">
         <v>89700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>74100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>73900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>71000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>71900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>60000</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2472,32 +2609,35 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100800</v>
+      </c>
+      <c r="E60" s="3">
         <v>93400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>78000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>78300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>73400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>74900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>63300</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2510,8 +2650,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2522,20 +2665,20 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>36600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>23400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>400</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2548,32 +2691,35 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>219600</v>
+      </c>
+      <c r="E62" s="3">
         <v>231500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>245400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>226300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>234600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>246400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>263200</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,32 +2855,35 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>320400</v>
+      </c>
+      <c r="E66" s="3">
         <v>324900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>323300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>341300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>331500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>323800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>326800</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +2896,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2848,14 +3016,14 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>561900</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>561200</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,32 +3077,35 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-467000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-430300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-396800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-365500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-344900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-330900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-314500</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2944,8 +3118,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,32 +3241,35 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>775000</v>
+      </c>
+      <c r="E76" s="3">
         <v>529900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>551600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>571000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>585900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-284400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-273500</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3282,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-33500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-31400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-20600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-14000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-16400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-18600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-13200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-12500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-12400</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,34 +3429,35 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E83" s="3">
         <v>2000</v>
       </c>
       <c r="F83" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G83" s="3">
         <v>2100</v>
       </c>
       <c r="H83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I83" s="3">
         <v>1900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1600</v>
-      </c>
-      <c r="K83" s="3">
-        <v>1500</v>
       </c>
       <c r="L83" s="3">
         <v>1500</v>
@@ -3266,11 +3465,14 @@
       <c r="M83" s="3">
         <v>1500</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-47200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-31100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-31600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-26800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-30100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-16000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>278300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-11700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6100</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3733,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3854,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-97200</v>
+      </c>
+      <c r="E94" s="3">
         <v>177500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>142800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>46700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-260900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-45300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-222200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>27600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>5100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>4700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-36700</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4076,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>276000</v>
+      </c>
+      <c r="E100" s="3">
         <v>6300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>319600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4158,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>131600</v>
+      </c>
+      <c r="E102" s="3">
         <v>152800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>116100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>21600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>28600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-62800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>56300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>22500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-42300</v>
       </c>
-      <c r="N102" s="3" t="s">
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADPT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADPT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,206 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E8" s="3">
         <v>26300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>21000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>20900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>24200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>26100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>22100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12700</v>
-      </c>
-      <c r="K8" s="3">
-        <v>17200</v>
       </c>
       <c r="L8" s="3">
         <v>17200</v>
       </c>
       <c r="M8" s="3">
+        <v>17200</v>
+      </c>
+      <c r="N8" s="3">
         <v>11600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9700</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E9" s="3">
         <v>6100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4000</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E10" s="3">
         <v>20200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>16100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>15600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>18200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>20500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>16400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>11800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5700</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E12" s="3">
         <v>30300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>26000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>23900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>21200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>20500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>16500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>12500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8900</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -991,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1029,11 +1051,14 @@
       <c r="N15" s="3">
         <v>400</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>400</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>74400</v>
+      </c>
+      <c r="E17" s="3">
         <v>63300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>57900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>55500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>48400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>44100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>38200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>32700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>31300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>26300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>24900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>22900</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-37000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-36900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-34600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-24200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-18000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-16100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-20000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-14100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-13300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-13200</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,90 +1177,97 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1600</v>
-      </c>
-      <c r="K20" s="3">
-        <v>900</v>
       </c>
       <c r="L20" s="3">
         <v>900</v>
       </c>
       <c r="M20" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>800</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-41100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-33900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-33000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-29700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-18500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-11900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-13800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-16600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-11700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-11000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-10900</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1268,64 +1307,70 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-43500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-36000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-35000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-31700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-20600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-14000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-15700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-18400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-12500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-12400</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1341,8 +1386,8 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1350,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-36700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-33500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-31400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-20600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-14000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-15700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-18400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-13300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-12500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-12400</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-36700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-33500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-31400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-20600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-14000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-16400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-18600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-12500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-12400</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1600</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-900</v>
       </c>
       <c r="L32" s="3">
         <v>-900</v>
       </c>
       <c r="M32" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-36700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-33500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-31400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-20600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-14000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-16400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-18600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-13200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-12500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-12400</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-36700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-33500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-31400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-20600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-14000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-16400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-18600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-13200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-12500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-12400</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,35 +1966,36 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>123400</v>
+      </c>
+      <c r="E41" s="3">
         <v>497100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>365400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>212700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>96600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>74900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>48500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>111300</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1922,35 +2008,38 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>564800</v>
+      </c>
+      <c r="E42" s="3">
         <v>338000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>204900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>342500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>480300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>498500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>374500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>329200</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1963,35 +2052,38 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E43" s="3">
         <v>11900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2004,35 +2096,38 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E44" s="3">
         <v>10700</v>
-      </c>
-      <c r="E44" s="3">
-        <v>10500</v>
       </c>
       <c r="F44" s="3">
         <v>10500</v>
       </c>
       <c r="G44" s="3">
+        <v>10500</v>
+      </c>
+      <c r="H44" s="3">
         <v>9100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>8700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>8000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>7900</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2045,35 +2140,38 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E45" s="3">
         <v>19700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6800</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2086,35 +2184,38 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>726900</v>
+      </c>
+      <c r="E46" s="3">
         <v>877400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>599500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>584600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>612700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>601400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>442300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>459100</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,29 +2228,32 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>118500</v>
+      </c>
+      <c r="E47" s="3">
         <v>16500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>57400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>100600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>105400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>135300</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2168,35 +2272,38 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>139000</v>
+      </c>
+      <c r="E48" s="3">
         <v>68900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>64500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>56000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>60400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>46500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>22300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>21200</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2209,35 +2316,38 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>129200</v>
+      </c>
+      <c r="E49" s="3">
         <v>129600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>130100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>130500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>130900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>131300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>131800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>132200</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2250,8 +2360,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,35 +2448,38 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E52" s="3">
         <v>3100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3100</v>
-      </c>
-      <c r="G52" s="3">
-        <v>2900</v>
       </c>
       <c r="H52" s="3">
         <v>2900</v>
       </c>
       <c r="I52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J52" s="3">
         <v>5000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2373,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,35 +2536,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1116400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1095500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>854800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>874900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>912300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>917400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>601400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>614600</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2455,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,35 +2618,36 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E57" s="3">
         <v>5400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3300</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,8 +2660,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2571,35 +2704,38 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E59" s="3">
         <v>95400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>89700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>74100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>73900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>71000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>71900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>60000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2612,35 +2748,38 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>105200</v>
+      </c>
+      <c r="E60" s="3">
         <v>100800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>93400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>78000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>78300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>73400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>74900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>63300</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2653,8 +2792,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2668,20 +2810,20 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>36600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>23400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2694,35 +2836,38 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>268000</v>
+      </c>
+      <c r="E62" s="3">
         <v>219600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>231500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>245400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>226300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>234600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>246400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>263200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,35 +3012,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>373100</v>
+      </c>
+      <c r="E66" s="3">
         <v>320400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>324900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>323300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>341300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>331500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>323800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>326800</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2899,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3019,14 +3186,14 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>561900</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>561200</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,35 +3250,38 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-511600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-467000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-430300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-396800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-365500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-344900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-330900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-314500</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3121,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,35 +3426,38 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>743300</v>
+      </c>
+      <c r="E76" s="3">
         <v>775000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>529900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>551600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>571000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>585900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-284400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-273500</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3285,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-36700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-33500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-31400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-20600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-14000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-16400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-18600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-13200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-12500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-12400</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,37 +3627,38 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E83" s="3">
         <v>2100</v>
-      </c>
-      <c r="E83" s="3">
-        <v>2000</v>
       </c>
       <c r="F83" s="3">
         <v>2000</v>
       </c>
       <c r="G83" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H83" s="3">
         <v>2100</v>
       </c>
       <c r="I83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J83" s="3">
         <v>1900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1600</v>
-      </c>
-      <c r="L83" s="3">
-        <v>1500</v>
       </c>
       <c r="M83" s="3">
         <v>1500</v>
@@ -3468,11 +3666,14 @@
       <c r="N83" s="3">
         <v>1500</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-47200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-31100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-31600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-26800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-30100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-16000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>278300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-11700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6100</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-340000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-97200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>177500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>142800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>46700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-260900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-45300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-222200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>27600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>5100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>4700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-36700</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,49 +4321,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E100" s="3">
         <v>276000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>6300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>319600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,45 +4409,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-373600</v>
+      </c>
+      <c r="E102" s="3">
         <v>131600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>152800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>116100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>21600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>28600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-62800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>56300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>22500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-42300</v>
       </c>
-      <c r="O102" s="3" t="s">
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADPT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADPT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E8" s="3">
         <v>30200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>26300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>21000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>20900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>24200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>26100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>22100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12700</v>
-      </c>
-      <c r="L8" s="3">
-        <v>17200</v>
       </c>
       <c r="M8" s="3">
         <v>17200</v>
       </c>
       <c r="N8" s="3">
+        <v>17200</v>
+      </c>
+      <c r="O8" s="3">
         <v>11600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9700</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E9" s="3">
         <v>6200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4000</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E10" s="3">
         <v>24000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>20200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>16100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>15600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>18200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>20500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>16400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>11900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>11800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5700</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E12" s="3">
         <v>35800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>30300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>26000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>23900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>21200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>20500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>16500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>12500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>9500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8900</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1054,11 +1077,14 @@
       <c r="O15" s="3">
         <v>400</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>79700</v>
+      </c>
+      <c r="E17" s="3">
         <v>74400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>63300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>57900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>55500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>48400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>44100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>38200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>32700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>31300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>26300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>24900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>22900</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-44200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-37000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-36900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-34600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-24200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-18000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-16100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-20000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-14100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-13300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-13200</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1211,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1600</v>
-      </c>
-      <c r="L20" s="3">
-        <v>900</v>
       </c>
       <c r="M20" s="3">
         <v>900</v>
       </c>
       <c r="N20" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-41100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-33900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-33000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-29700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-18500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-11900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-13800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-16600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-11700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-11000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-10900</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,70 +1350,76 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-40600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-43500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-36000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-35000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-31700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-20600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-14000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-15700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-18400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-13300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-12500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-12400</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>1100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-300</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1389,8 +1435,8 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-40600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-44600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-36700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-33500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-31400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-20600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-14000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-15700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-18400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-13300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-12500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-12400</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-40600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-44600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-36700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-33500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-31400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-20600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-14000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-16400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-18600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-13200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-12500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-12400</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1600</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-900</v>
       </c>
       <c r="M32" s="3">
         <v>-900</v>
       </c>
       <c r="N32" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-40600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-44600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-36700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-33500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-31400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-20600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-14000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-16400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-18600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-13200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-12500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-12400</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-40600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-44600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-36700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-33500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-31400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-20600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-14000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-16400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-18600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-13200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-12500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-12400</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,38 +2053,39 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>173600</v>
+      </c>
+      <c r="E41" s="3">
         <v>123400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>497100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>365400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>212700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>96600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>74900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>48500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>111300</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2011,38 +2098,41 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>540600</v>
+      </c>
+      <c r="E42" s="3">
         <v>564800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>338000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>204900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>342500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>480300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>498500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>374500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>329200</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2055,38 +2145,41 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E43" s="3">
         <v>10000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>12700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,38 +2192,41 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E44" s="3">
         <v>14100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>10700</v>
-      </c>
-      <c r="F44" s="3">
-        <v>10500</v>
       </c>
       <c r="G44" s="3">
         <v>10500</v>
       </c>
       <c r="H44" s="3">
+        <v>10500</v>
+      </c>
+      <c r="I44" s="3">
         <v>9100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>8700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>8000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7900</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2143,38 +2239,41 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E45" s="3">
         <v>14500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6800</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,38 +2286,41 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>765000</v>
+      </c>
+      <c r="E46" s="3">
         <v>726900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>877400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>599500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>584600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>612700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>601400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>442300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>459100</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2231,32 +2333,35 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E47" s="3">
         <v>118500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>16500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>57400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>100600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>105400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>135300</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2275,38 +2380,41 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>144800</v>
+      </c>
+      <c r="E48" s="3">
         <v>139000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>68900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>64500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>56000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>60400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>46500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>22300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21200</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2319,38 +2427,41 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>128800</v>
+      </c>
+      <c r="E49" s="3">
         <v>129200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>129600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>130100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>130500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>130900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>131300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>131800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>132200</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,38 +2568,41 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E52" s="3">
         <v>2700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>2900</v>
       </c>
       <c r="I52" s="3">
         <v>2900</v>
       </c>
       <c r="J52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K52" s="3">
         <v>5000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,38 +2662,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1072100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1116400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1095500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>854800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>874900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>912300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>917400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>601400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>614600</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,38 +2749,39 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E57" s="3">
         <v>3200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3300</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2663,8 +2794,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,38 +2841,41 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>101600</v>
+      </c>
+      <c r="E59" s="3">
         <v>102000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>95400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>89700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>74100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>73900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>71000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>71900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>60000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2751,38 +2888,41 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>106800</v>
+      </c>
+      <c r="E60" s="3">
         <v>105200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>100800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>93400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>78000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>78300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>73400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>74900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>63300</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,8 +2935,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2813,20 +2956,20 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>36600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>23400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>400</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2839,38 +2982,41 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>239600</v>
+      </c>
+      <c r="E62" s="3">
         <v>268000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>219600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>231500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>245400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>226300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>234600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>246400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>263200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,38 +3170,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>346500</v>
+      </c>
+      <c r="E66" s="3">
         <v>373100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>320400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>324900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>323300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>341300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>331500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>323800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>326800</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3189,14 +3357,14 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>561900</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>561200</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,38 +3424,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-552300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-511600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-467000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-430300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-396800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-365500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-344900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-330900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-314500</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,38 +3612,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>725600</v>
+      </c>
+      <c r="E76" s="3">
         <v>743300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>775000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>529900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>551600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>571000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>585900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-284400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-273500</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-40600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-44600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-36700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-33500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-31400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-20600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-14000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-16400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-18600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-13200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-12500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-12400</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,40 +3826,41 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E83" s="3">
         <v>2400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2100</v>
-      </c>
-      <c r="F83" s="3">
-        <v>2000</v>
       </c>
       <c r="G83" s="3">
         <v>2000</v>
       </c>
       <c r="H83" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="I83" s="3">
         <v>2100</v>
       </c>
       <c r="J83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K83" s="3">
         <v>1900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1600</v>
-      </c>
-      <c r="M83" s="3">
-        <v>1500</v>
       </c>
       <c r="N83" s="3">
         <v>1500</v>
@@ -3669,11 +3868,14 @@
       <c r="O83" s="3">
         <v>1500</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-58200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-39800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-47200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-31100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-31600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-26800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-30100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-16000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>278300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-11700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-9100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6100</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>93800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-340000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-97200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>177500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>142800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>46700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-260900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-45300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-222200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>27600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>5100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>4700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-36700</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E100" s="3">
         <v>6300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>276000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>6300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>319600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-373600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>131600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>152800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>116100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>21600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>28600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-62800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>56300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>22500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-42300</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADPT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADPT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E8" s="3">
         <v>38400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>30200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>26300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>21000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>20900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>24200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>26100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>22100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12700</v>
-      </c>
-      <c r="M8" s="3">
-        <v>17200</v>
       </c>
       <c r="N8" s="3">
         <v>17200</v>
       </c>
       <c r="O8" s="3">
+        <v>17200</v>
+      </c>
+      <c r="P8" s="3">
         <v>11600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9700</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E9" s="3">
         <v>10000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4000</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E10" s="3">
         <v>28400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>24000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>20200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>16100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>15600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>18200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>20500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>16400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>11900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>11800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5700</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E12" s="3">
         <v>33800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>35800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>30300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>26000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>23900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>21200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>20500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>16500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>12500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>11100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>9800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>9500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8900</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1080,11 +1103,14 @@
       <c r="P15" s="3">
         <v>400</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>400</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>88300</v>
+      </c>
+      <c r="E17" s="3">
         <v>79700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>74400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>63300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>57900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>55500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>48400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>44100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>38200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>32700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>31300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>26300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>24900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>22900</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-49800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-41300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-44200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-37000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-36900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-34600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-24200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-18000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-16100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-20000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-14100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-13300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-13200</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1245,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
-      </c>
-      <c r="M20" s="3">
-        <v>900</v>
       </c>
       <c r="N20" s="3">
         <v>900</v>
       </c>
       <c r="O20" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="P20" s="3">
         <v>800</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>800</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-46400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-38000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-41100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-33900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-33000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-29700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-18500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-11900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-13800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-16600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-11700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-11000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,55 +1393,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-49300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-40600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-43500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-36000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-35000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-31700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-20600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-14000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-18400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-13300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-12500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1409,20 +1455,20 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>1100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1438,8 +1484,8 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-49300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-40600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-44600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-36700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-33500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-31400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-20600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-14000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-18400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-13300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-12500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-49300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-40600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-44600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-36700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-33500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-31400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-20600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-14000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-16400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-18600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-13200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-12500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-900</v>
       </c>
       <c r="N32" s="3">
         <v>-900</v>
       </c>
       <c r="O32" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="P32" s="3">
         <v>-800</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-49300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-40600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-44600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-36700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-33500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-31400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-20600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-14000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-16400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-18600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-13200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-12500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-49300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-40600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-44600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-36700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-33500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-31400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-20600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-14000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-16400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-18600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-13200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-12500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,41 +2140,42 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>184200</v>
+      </c>
+      <c r="E41" s="3">
         <v>173600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>123400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>497100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>365400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>212700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>96600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>74900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>48500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>111300</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2101,41 +2188,44 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>414200</v>
+      </c>
+      <c r="E42" s="3">
         <v>540600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>564800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>338000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>204900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>342500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>480300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>498500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>374500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>329200</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2148,41 +2238,44 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E43" s="3">
         <v>19800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>12700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>9300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,41 +2288,44 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E44" s="3">
         <v>17400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>14100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>10700</v>
-      </c>
-      <c r="G44" s="3">
-        <v>10500</v>
       </c>
       <c r="H44" s="3">
         <v>10500</v>
       </c>
       <c r="I44" s="3">
+        <v>10500</v>
+      </c>
+      <c r="J44" s="3">
         <v>9100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>8700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7900</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2242,41 +2338,44 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E45" s="3">
         <v>13500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6800</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,41 +2388,44 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>643700</v>
+      </c>
+      <c r="E46" s="3">
         <v>765000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>726900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>877400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>599500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>584600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>612700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>601400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>442300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>459100</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2336,35 +2438,38 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>91100</v>
+      </c>
+      <c r="E47" s="3">
         <v>30700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>118500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>16500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>57400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>100600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>105400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>135300</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2383,41 +2488,44 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>167300</v>
+      </c>
+      <c r="E48" s="3">
         <v>144800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>139000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>68900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>64500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>56000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>60400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>46500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>22300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21200</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2430,41 +2538,44 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>128400</v>
+      </c>
+      <c r="E49" s="3">
         <v>128800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>129200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>129600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>130100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>130500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>130900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>131300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>131800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>132200</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2580,32 +2700,32 @@
         <v>2900</v>
       </c>
       <c r="E52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F52" s="3">
         <v>2700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2900</v>
       </c>
       <c r="J52" s="3">
         <v>2900</v>
       </c>
       <c r="K52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L52" s="3">
         <v>5000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,41 +2788,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1033400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1072100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1116400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1095500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>854800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>874900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>912300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>917400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>601400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>614600</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,41 +2880,42 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E57" s="3">
         <v>5200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3300</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2797,8 +2928,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,41 +2978,44 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>110600</v>
+      </c>
+      <c r="E59" s="3">
         <v>101600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>102000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>95400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>89700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>74100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>73900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>71000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>71900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>60000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2891,41 +3028,44 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>116600</v>
+      </c>
+      <c r="E60" s="3">
         <v>106800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>105200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>100800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>93400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>78000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>78300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>73400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>74900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>63300</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2938,8 +3078,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2959,20 +3102,20 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>36600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>23400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>400</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -2985,41 +3128,44 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>223400</v>
+      </c>
+      <c r="E62" s="3">
         <v>239600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>268000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>219600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>231500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>245400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>226300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>234600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>246400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>263200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,41 +3328,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>340200</v>
+      </c>
+      <c r="E66" s="3">
         <v>346500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>373100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>320400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>324900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>323300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>341300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>331500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>323800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>326800</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3360,14 +3528,14 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>561900</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>561200</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,41 +3598,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-601600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-552300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-511600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-467000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-430300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-396800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-365500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-344900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-330900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-314500</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,41 +3798,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>693200</v>
+      </c>
+      <c r="E76" s="3">
         <v>725600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>743300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>775000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>529900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>551600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>571000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>585900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-284400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-273500</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-49300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-40600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-44600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-36700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-33500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-31400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-20600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-14000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-16400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-18600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-13200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-12500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,43 +4025,44 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E83" s="3">
         <v>2700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2100</v>
-      </c>
-      <c r="G83" s="3">
-        <v>2000</v>
       </c>
       <c r="H83" s="3">
         <v>2000</v>
       </c>
       <c r="I83" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J83" s="3">
         <v>2100</v>
       </c>
       <c r="K83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L83" s="3">
         <v>1900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1600</v>
-      </c>
-      <c r="N83" s="3">
-        <v>1500</v>
       </c>
       <c r="O83" s="3">
         <v>1500</v>
@@ -3871,11 +4070,14 @@
       <c r="P83" s="3">
         <v>1500</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-58200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-39800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-47200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-31100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-31600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-26800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-30100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-16000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>278300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-11700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-9100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-600</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E94" s="3">
         <v>93800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-340000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-97200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>177500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>142800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>46700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-260900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-45300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-222200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>27600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>5100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>4700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-36700</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E100" s="3">
         <v>14600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>6300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>276000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>6300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>319600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E102" s="3">
         <v>50200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-373600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>131600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>152800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>116100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>21600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>28600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-62800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>56300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>22500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-42300</v>
       </c>
-      <c r="Q102" s="3" t="s">
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADPT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADPT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E8" s="3">
         <v>38500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>38400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>30200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>26300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>21000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>20900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>24200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>22100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12700</v>
-      </c>
-      <c r="N8" s="3">
-        <v>17200</v>
       </c>
       <c r="O8" s="3">
         <v>17200</v>
       </c>
       <c r="P8" s="3">
+        <v>17200</v>
+      </c>
+      <c r="Q8" s="3">
         <v>11600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9700</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E9" s="3">
         <v>10800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4000</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E10" s="3">
         <v>27700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>28400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>24000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>20200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>16100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>15600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>18200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>20500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>16400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>11900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>11800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5700</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,58 +922,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E12" s="3">
         <v>37800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>33800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>35800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>30300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>26000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>23900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>21200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>20500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>16500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>12500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>9800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>8900</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1106,11 +1129,14 @@
       <c r="Q15" s="3">
         <v>400</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>400</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>95800</v>
+      </c>
+      <c r="E17" s="3">
         <v>88300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>79700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>74400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>63300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>57900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>55500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>48400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>44100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>38200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>32700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>31300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>26300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>24900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>22900</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-49800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-41300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-44200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-37000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-36900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-34600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-24200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-18000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-16100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-20000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-14100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-13200</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,108 +1279,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1600</v>
-      </c>
-      <c r="N20" s="3">
-        <v>900</v>
       </c>
       <c r="O20" s="3">
         <v>900</v>
       </c>
       <c r="P20" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="Q20" s="3">
         <v>800</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>800</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-52500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-46400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-38000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-41100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-33900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-33000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-29700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-18500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-11900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-13800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-16600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-11700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-10900</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,58 +1436,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-49300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-40600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-43500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-36000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-35000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-31700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-20600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-14000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-15700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-18400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-13300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-12400</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1458,20 +1504,20 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>1100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1487,8 +1533,8 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-49300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-40600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-44600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-36700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-33500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-31400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-20600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-14000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-15700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-18400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-13300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-12400</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-55900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-49300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-40600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-44600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-36700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-33500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-31400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-20600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-14000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-16400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-18600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-13200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-12400</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1600</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-900</v>
       </c>
       <c r="O32" s="3">
         <v>-900</v>
       </c>
       <c r="P32" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="Q32" s="3">
         <v>-800</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-55900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-49300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-40600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-44600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-36700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-33500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-31400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-20600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-14000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-16400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-18600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-13200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-12400</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-55900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-49300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-40600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-44600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-36700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-33500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-31400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-20600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-14000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-16400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-18600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-13200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-12400</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,44 +2227,45 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>122400</v>
+      </c>
+      <c r="E41" s="3">
         <v>184200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>173600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>123400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>497100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>365400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>212700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>96600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>74900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>48500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>111300</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,44 +2278,47 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>292600</v>
+      </c>
+      <c r="E42" s="3">
         <v>414200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>540600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>564800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>338000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>204900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>342500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>480300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>498500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>374500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>329200</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2241,44 +2331,47 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E43" s="3">
         <v>14200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>19800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>12700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4100</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2291,44 +2384,47 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E44" s="3">
         <v>18600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>17400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>14100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>10700</v>
-      </c>
-      <c r="H44" s="3">
-        <v>10500</v>
       </c>
       <c r="I44" s="3">
         <v>10500</v>
       </c>
       <c r="J44" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K44" s="3">
         <v>9100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7900</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2341,44 +2437,47 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E45" s="3">
         <v>12500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6800</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2391,44 +2490,47 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>467000</v>
+      </c>
+      <c r="E46" s="3">
         <v>643700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>765000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>726900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>877400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>599500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>584600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>612700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>601400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>442300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>459100</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2441,38 +2543,41 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>217400</v>
+      </c>
+      <c r="E47" s="3">
         <v>91100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>30700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>118500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>16500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>57400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>100600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>105400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>135300</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2491,44 +2596,47 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>177300</v>
+      </c>
+      <c r="E48" s="3">
         <v>167300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>144800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>139000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>68900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>64500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>56000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>60400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>46500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>22300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>21200</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2541,44 +2649,47 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>127900</v>
+      </c>
+      <c r="E49" s="3">
         <v>128400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>128800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>129200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>129600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>130100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>130500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>130900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>131300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>131800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>132200</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,44 +2808,47 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="E52" s="3">
         <v>2900</v>
       </c>
       <c r="F52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G52" s="3">
         <v>2700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>2900</v>
       </c>
       <c r="K52" s="3">
         <v>2900</v>
       </c>
       <c r="L52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="M52" s="3">
         <v>5000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2100</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,44 +2914,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>992600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1033400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1072100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1116400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1095500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>854800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>874900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>912300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>917400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>601400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>614600</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2841,8 +2967,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,44 +3011,45 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E57" s="3">
         <v>6100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3300</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2931,8 +3062,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,44 +3115,47 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>114100</v>
+      </c>
+      <c r="E59" s="3">
         <v>110600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>101600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>102000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>95400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>89700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>74100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>73900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>71000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>71900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>60000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,44 +3168,47 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>122400</v>
+      </c>
+      <c r="E60" s="3">
         <v>116600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>106800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>105200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>100800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>93400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>78000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>78300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>73400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>74900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>63300</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3081,8 +3221,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3105,20 +3248,20 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>36600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>23400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>400</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3131,44 +3274,47 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>218700</v>
+      </c>
+      <c r="E62" s="3">
         <v>223400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>239600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>268000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>219600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>231500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>245400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>226300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>234600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>246400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>263200</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,44 +3486,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>341100</v>
+      </c>
+      <c r="E66" s="3">
         <v>340200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>346500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>373100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>320400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>324900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>323300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>341300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>331500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>323800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>326800</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3381,8 +3539,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3531,14 +3699,14 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>561900</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>561200</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,44 +3772,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-657500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-601600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-552300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-511600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-467000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-430300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-396800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-365500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-344900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-330900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-314500</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3651,8 +3825,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,44 +3984,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>651500</v>
+      </c>
+      <c r="E76" s="3">
         <v>693200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>725600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>743300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>775000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>529900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>551600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>571000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>585900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-284400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-273500</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3851,8 +4037,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-55900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-49300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-40600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-44600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-36700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-33500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-31400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-20600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-14000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-16400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-18600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-13200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-12400</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,46 +4224,47 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E83" s="3">
         <v>2900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>2000</v>
       </c>
       <c r="I83" s="3">
         <v>2000</v>
       </c>
       <c r="J83" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="K83" s="3">
         <v>2100</v>
       </c>
       <c r="L83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M83" s="3">
         <v>1900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1600</v>
-      </c>
-      <c r="O83" s="3">
-        <v>1500</v>
       </c>
       <c r="P83" s="3">
         <v>1500</v>
@@ -4073,11 +4272,14 @@
       <c r="Q83" s="3">
         <v>1500</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-43400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-37200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-58200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-39800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-47200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-31100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-31600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-26800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-30100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-16000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>278300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-11700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6100</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-22000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-15800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-600</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E94" s="3">
         <v>41400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>93800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-340000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-97200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>177500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>142800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>46700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-260900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-45300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-222200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>27600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>5100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>4700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-36700</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5059,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E100" s="3">
         <v>6300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>14600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>6300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>276000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>5000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>319600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5165,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-61800</v>
+      </c>
+      <c r="E102" s="3">
         <v>10600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>50200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-373600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>131600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>152800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>116100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>21600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>28600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-62800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>56300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>22500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-42300</v>
       </c>
-      <c r="R102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADPT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADPT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
   <si>
     <t>ADPT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,257 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E8" s="3">
         <v>39500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>38500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>38400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>30200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>26300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>21000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>20900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>24200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>26100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>22100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12700</v>
-      </c>
-      <c r="O8" s="3">
-        <v>17200</v>
       </c>
       <c r="P8" s="3">
         <v>17200</v>
       </c>
       <c r="Q8" s="3">
+        <v>17200</v>
+      </c>
+      <c r="R8" s="3">
         <v>11600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9700</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E9" s="3">
         <v>14200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4000</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E10" s="3">
         <v>25300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>27700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>28400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>24000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>20200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>16100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>15600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>18200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>20500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>16400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>11900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>11800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5700</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E12" s="3">
         <v>36100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>37800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>33800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>35800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>30300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>26000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>23900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>21200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>20500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>16500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>12500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>11100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>9500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>8900</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1132,11 +1154,14 @@
       <c r="R15" s="3">
         <v>400</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>400</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>99500</v>
+      </c>
+      <c r="E17" s="3">
         <v>95800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>88300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>79700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>74400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>63300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>57900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>55500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>48400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>44100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>38200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>32700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>31300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>26300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>24900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>22900</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-61600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-56300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-49800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-41300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-44200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-37000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-36900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-34600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-24200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-18000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-16100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-20000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-14100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-13300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-13200</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1289,105 +1322,111 @@
         <v>300</v>
       </c>
       <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1600</v>
-      </c>
-      <c r="O20" s="3">
-        <v>900</v>
       </c>
       <c r="P20" s="3">
         <v>900</v>
       </c>
       <c r="Q20" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="R20" s="3">
         <v>800</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>800</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-56500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-52500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-46400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-38000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-41100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-33900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-33000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-29700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-18500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-11900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-13800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-16600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-11700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-11000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-10900</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,66 +1478,72 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-61400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-56000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-49300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-40600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-43500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-36000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-35000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-31700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-20600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-14000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-15700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-18400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-13300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-12500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-12400</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1507,20 +1552,20 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>1100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-300</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1536,8 +1581,8 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1545,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-61400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-56000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-49300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-40600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-44600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-36700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-33500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-31400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-20600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-14000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-15700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-18400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-13300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-12500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-12400</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-61400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-55900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-49300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-40600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-44600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-36700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-33500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-31400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-20600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-14000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-16400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-18600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-13200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-12500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-12400</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1925,105 +1994,111 @@
         <v>-300</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1600</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-900</v>
       </c>
       <c r="P32" s="3">
         <v>-900</v>
       </c>
       <c r="Q32" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="R32" s="3">
         <v>-800</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-61400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-55900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-49300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-40600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-44600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-36700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-33500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-31400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-20600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-14000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-16400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-18600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-13200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-12500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-12400</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-61400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-55900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-49300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-40600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-44600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-36700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-33500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-31400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-20600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-14000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-16400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-18600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-13200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-12500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-12400</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,47 +2313,48 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>139100</v>
+      </c>
+      <c r="E41" s="3">
         <v>122400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>184200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>173600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>123400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>497100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>365400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>212700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>96600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>74900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>48500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>111300</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2281,47 +2367,50 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E42" s="3">
         <v>292600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>414200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>540600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>564800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>338000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>204900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>342500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>480300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>498500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>374500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>329200</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2334,47 +2423,50 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E43" s="3">
         <v>17100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>14200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>19800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>9400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4100</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2387,47 +2479,50 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E44" s="3">
         <v>18200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>18600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>17400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>14100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>10700</v>
-      </c>
-      <c r="I44" s="3">
-        <v>10500</v>
       </c>
       <c r="J44" s="3">
         <v>10500</v>
       </c>
       <c r="K44" s="3">
+        <v>10500</v>
+      </c>
+      <c r="L44" s="3">
         <v>9100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7900</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2440,47 +2535,50 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E45" s="3">
         <v>16600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6800</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2493,47 +2591,50 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>402700</v>
+      </c>
+      <c r="E46" s="3">
         <v>467000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>643700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>765000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>726900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>877400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>599500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>584600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>612700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>601400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>442300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>459100</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2546,41 +2647,44 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>217100</v>
+      </c>
+      <c r="E47" s="3">
         <v>217400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>91100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>30700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>118500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>16500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>57400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>100600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>105400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>135300</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2599,47 +2703,50 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>172900</v>
+      </c>
+      <c r="E48" s="3">
         <v>177300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>167300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>144800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>139000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>68900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>64500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>56000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>60400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>46500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>22300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>21200</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,47 +2759,50 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>127500</v>
+      </c>
+      <c r="E49" s="3">
         <v>127900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>128400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>128800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>129200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>129600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>130100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>130500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>130900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>131300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>131800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>132200</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2705,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2820,38 +2939,38 @@
         <v>3000</v>
       </c>
       <c r="E52" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="F52" s="3">
         <v>2900</v>
       </c>
       <c r="G52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H52" s="3">
         <v>2700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3100</v>
-      </c>
-      <c r="K52" s="3">
-        <v>2900</v>
       </c>
       <c r="L52" s="3">
         <v>2900</v>
       </c>
       <c r="M52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N52" s="3">
         <v>5000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2100</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2864,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,47 +3039,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>923300</v>
+      </c>
+      <c r="E54" s="3">
         <v>992600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1033400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1072100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1116400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1095500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>854800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>874900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>912300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>917400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>601400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>614600</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2970,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,47 +3141,48 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E57" s="3">
         <v>8300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3300</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3065,8 +3195,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3118,47 +3251,50 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>110500</v>
+      </c>
+      <c r="E59" s="3">
         <v>114100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>110600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>101600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>102000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>95400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>89700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>74100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>73900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>71000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>71900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>60000</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3171,47 +3307,50 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>113800</v>
+      </c>
+      <c r="E60" s="3">
         <v>122400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>116600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>106800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>105200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>100800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>93400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>78000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>78300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>73400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>74900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>63300</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3224,8 +3363,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3251,20 +3393,20 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>36600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>23400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>400</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3277,47 +3419,50 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>205400</v>
+      </c>
+      <c r="E62" s="3">
         <v>218700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>223400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>239600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>268000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>219600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>231500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>245400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>226300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>234600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>246400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>263200</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3330,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,47 +3643,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>319400</v>
+      </c>
+      <c r="E66" s="3">
         <v>341100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>340200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>346500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>373100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>320400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>324900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>323300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>341300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>331500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>323800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>326800</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3542,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3702,14 +3869,14 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>561900</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>561200</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,47 +3945,50 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-718900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-657500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-601600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-552300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-511600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-467000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-430300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-396800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-365500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-344900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-330900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-314500</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3828,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,47 +4169,50 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>604000</v>
+      </c>
+      <c r="E76" s="3">
         <v>651500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>693200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>725600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>743300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>775000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>529900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>551600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>571000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>585900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-284400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-273500</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4040,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-61400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-55900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-49300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-40600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-44600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-36700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-33500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-31400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-20600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-14000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-16400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-18600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-13200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-12500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-12400</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,49 +4422,50 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E83" s="3">
         <v>3500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>2000</v>
       </c>
       <c r="J83" s="3">
         <v>2000</v>
       </c>
       <c r="K83" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="L83" s="3">
         <v>2100</v>
       </c>
       <c r="M83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N83" s="3">
         <v>1900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1600</v>
-      </c>
-      <c r="P83" s="3">
-        <v>1500</v>
       </c>
       <c r="Q83" s="3">
         <v>1500</v>
@@ -4275,11 +4473,14 @@
       <c r="R83" s="3">
         <v>1500</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-53800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-43400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-37200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-58200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-39800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-47200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-31100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-31600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-26800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-30100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-16000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>278300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-9100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6100</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-14600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-22000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-600</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>67200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-21300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>41400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>93800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-340000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-97200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>177500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>142800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>46700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-260900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-45300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-222200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>27600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>5100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>4700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-36700</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E100" s="3">
         <v>2900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>6300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>14600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>6300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>276000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>5000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>319600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-61800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>10600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>50200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-373600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>131600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>152800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>116100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>21600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>28600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-62800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>56300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>22500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-42300</v>
       </c>
-      <c r="S102" s="3" t="s">
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADPT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADPT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>ADPT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E8" s="3">
         <v>37900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>39500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>38500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>38400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>30200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>26300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>21000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>24200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>26100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>22100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12700</v>
-      </c>
-      <c r="P8" s="3">
-        <v>17200</v>
       </c>
       <c r="Q8" s="3">
         <v>17200</v>
       </c>
       <c r="R8" s="3">
+        <v>17200</v>
+      </c>
+      <c r="S8" s="3">
         <v>11600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9700</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E9" s="3">
         <v>14400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>14200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4000</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E10" s="3">
         <v>23500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>25300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>27700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>28400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>24000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>20200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>16100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>15600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>18200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>20500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>16400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>11900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>11800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5700</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,64 +949,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E12" s="3">
         <v>34700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>36100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>37800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>33800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>35800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>30300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>26000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>23900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>21200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>20500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>16500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>12500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>11100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>9800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>9500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>8900</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,31 +1065,34 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>1600</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1104,13 +1124,16 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>400</v>
+        <v>5000</v>
       </c>
       <c r="E15" s="3">
         <v>400</v>
@@ -1157,11 +1180,14 @@
       <c r="S15" s="3">
         <v>400</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>400</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>101700</v>
+      </c>
+      <c r="E17" s="3">
         <v>99500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>95800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>88300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>79700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>74400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>63300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>57900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>55500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>48400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>44100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>38200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>32700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>31300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>26300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>24900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>22900</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-63100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-61600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-56300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-49800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-41300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-44200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-37000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-36900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-34600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-24200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-18000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-16100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-20000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-14100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-9100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-13300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-13200</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1325,108 +1359,114 @@
         <v>300</v>
       </c>
       <c r="F20" s="3">
+        <v>300</v>
+      </c>
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1600</v>
-      </c>
-      <c r="P20" s="3">
-        <v>900</v>
       </c>
       <c r="Q20" s="3">
         <v>900</v>
       </c>
       <c r="R20" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="S20" s="3">
         <v>800</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>800</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-57700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-56500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-52500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-46400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-38000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-41100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-33900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-33000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-29700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-18500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-11900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-13800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-16600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-6800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-11000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-10900</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,72 +1521,78 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-62800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-61400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-56000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-49300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-40600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-43500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-36000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-35000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-31700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-20600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-14000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-15700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-18400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-8300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-12500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-12400</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1555,20 +1601,20 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>1100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-300</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1584,8 +1630,8 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-62800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-61400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-56000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-49300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-40600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-44600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-36700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-33500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-31400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-20600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-14000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-15700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-18400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-8300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-12500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-12400</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-62700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-61400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-55900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-49300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-40600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-44600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-36700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-33500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-31400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-20600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-14000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-16400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-18600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-13200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-8300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-12500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-12400</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1997,108 +2067,114 @@
         <v>-300</v>
       </c>
       <c r="F32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1600</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-900</v>
       </c>
       <c r="Q32" s="3">
         <v>-900</v>
       </c>
       <c r="R32" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="S32" s="3">
         <v>-800</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-62700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-61400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-55900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-49300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-40600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-44600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-36700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-33500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-31400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-20600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-14000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-16400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-18600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-13200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-8300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-12500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-12400</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-62700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-61400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-55900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-49300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-40600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-44600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-36700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-33500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-31400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-20600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-14000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-16400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-18600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-13200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-8300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-12500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-12400</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,50 +2400,51 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>114800</v>
+      </c>
+      <c r="E41" s="3">
         <v>139100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>122400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>184200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>173600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>123400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>497100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>365400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>212700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>96600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>74900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>48500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>111300</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,50 +2457,53 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>248800</v>
+      </c>
+      <c r="E42" s="3">
         <v>214000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>292600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>414200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>540600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>564800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>338000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>204900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>342500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>480300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>498500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>374500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>329200</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2426,50 +2516,53 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E43" s="3">
         <v>17400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>17100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>14200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>19800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>11900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4100</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2482,50 +2575,53 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E44" s="3">
         <v>19300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>18200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>18600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>17400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>14100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>10700</v>
-      </c>
-      <c r="J44" s="3">
-        <v>10500</v>
       </c>
       <c r="K44" s="3">
         <v>10500</v>
       </c>
       <c r="L44" s="3">
+        <v>10500</v>
+      </c>
+      <c r="M44" s="3">
         <v>9100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>8000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7900</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2538,50 +2634,53 @@
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E45" s="3">
         <v>13000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6800</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2594,50 +2693,53 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>419100</v>
+      </c>
+      <c r="E46" s="3">
         <v>402700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>467000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>643700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>765000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>726900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>877400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>599500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>584600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>612700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>601400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>442300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>459100</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,44 +2752,47 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>137100</v>
+      </c>
+      <c r="E47" s="3">
         <v>217100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>217400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>91100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>30700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>118500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>16500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>57400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>100600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>105400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>135300</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2706,50 +2811,53 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>171600</v>
+      </c>
+      <c r="E48" s="3">
         <v>172900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>177300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>167300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>144800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>139000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>68900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>64500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>56000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>60400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>46500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>22300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>21200</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2762,50 +2870,53 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>127100</v>
+      </c>
+      <c r="E49" s="3">
         <v>127500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>127900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>128400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>128800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>129200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>129600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>130100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>130500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>130900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>131300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>131800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>132200</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,50 +3047,53 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="E52" s="3">
         <v>3000</v>
       </c>
       <c r="F52" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="G52" s="3">
         <v>2900</v>
       </c>
       <c r="H52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I52" s="3">
         <v>2700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3100</v>
-      </c>
-      <c r="L52" s="3">
-        <v>2900</v>
       </c>
       <c r="M52" s="3">
         <v>2900</v>
       </c>
       <c r="N52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O52" s="3">
         <v>5000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2100</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,50 +3165,53 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>858200</v>
+      </c>
+      <c r="E54" s="3">
         <v>923300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>992600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1033400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1072100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1116400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1095500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>854800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>874900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>912300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>917400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>601400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>614600</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3098,8 +3224,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,50 +3272,51 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3300</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3198,8 +3329,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,50 +3388,53 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>109100</v>
+      </c>
+      <c r="E59" s="3">
         <v>110500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>114100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>110600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>101600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>102000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>95400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>89700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>74100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>73900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>71000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>71900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>60000</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3310,50 +3447,53 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>115100</v>
+      </c>
+      <c r="E60" s="3">
         <v>113800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>122400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>116600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>106800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>105200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>100800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>93400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>78000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>78300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>73400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>74900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>63300</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3366,8 +3506,11 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3396,20 +3539,20 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>36600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>23400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>400</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3422,50 +3565,53 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>189900</v>
+      </c>
+      <c r="E62" s="3">
         <v>205400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>218700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>223400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>239600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>268000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>219600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>231500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>245400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>226300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>234600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>246400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>263200</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,50 +3801,53 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>305000</v>
+      </c>
+      <c r="E66" s="3">
         <v>319400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>341100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>340200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>346500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>373100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>320400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>324900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>323300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>341300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>331500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>323800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>326800</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3702,8 +3860,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3872,14 +4040,14 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>561900</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>561200</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,50 +4119,53 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-781600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-718900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-657500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-601600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-552300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-511600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-467000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-430300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-396800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-365500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-344900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-330900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-314500</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4004,8 +4178,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,50 +4355,53 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>553200</v>
+      </c>
+      <c r="E76" s="3">
         <v>604000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>651500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>693200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>725600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>743300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>775000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>529900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>551600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>571000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>585900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-284400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-273500</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4228,8 +4414,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-62700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-61400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-55900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-49300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-40600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-44600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-36700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-33500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-31400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-20600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-14000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-16400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-18600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-13200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-8300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-12500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-12400</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,52 +4621,53 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E83" s="3">
         <v>4800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>2000</v>
       </c>
       <c r="K83" s="3">
         <v>2000</v>
       </c>
       <c r="L83" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="M83" s="3">
         <v>2100</v>
       </c>
       <c r="N83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O83" s="3">
         <v>1900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>1500</v>
       </c>
       <c r="R83" s="3">
         <v>1500</v>
@@ -4476,11 +4675,14 @@
       <c r="S83" s="3">
         <v>1500</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-64500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-53800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-43400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-37200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-58200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-39800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-47200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-31100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-31600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-26800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-30100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-16000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>278300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-11700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-9100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-6100</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-14600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-22000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-600</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E94" s="3">
         <v>67200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-21300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>41400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>93800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-340000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-97200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>177500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>142800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>46700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-260900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-45300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-222200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>27600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>5100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>4700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-36700</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E100" s="3">
         <v>3300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>6300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>14600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>276000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>319600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E102" s="3">
         <v>16700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-61800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>10600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>50200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-373600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>131600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>152800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>116100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>21600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>28600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-62800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>56300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>22500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-4000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-42300</v>
       </c>
-      <c r="T102" s="3" t="s">
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADPT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADPT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
   <si>
     <t>ADPT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,152 +665,159 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E8" s="3">
         <v>38600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>37900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>39500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>38500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>38400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>30200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>26300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>24200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>26100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>22100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12700</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>17200</v>
       </c>
       <c r="R8" s="3">
         <v>17200</v>
       </c>
       <c r="S8" s="3">
+        <v>17200</v>
+      </c>
+      <c r="T8" s="3">
         <v>11600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9700</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -818,117 +825,123 @@
         <v>13200</v>
       </c>
       <c r="E9" s="3">
+        <v>13200</v>
+      </c>
+      <c r="F9" s="3">
         <v>14400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>14200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4000</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E10" s="3">
         <v>25400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>23500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>25300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>27700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>28400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>24000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>20200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>16100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>15600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>18200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>20500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>16400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>11900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>11800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5700</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,67 +963,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E12" s="3">
         <v>32600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>34700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>36100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>37800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>33800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>35800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>30300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>26000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>23900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>21200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>20500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>16500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>12500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>11100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>9800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>9500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>8900</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,17 +1085,20 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>1600</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1094,8 +1114,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1127,16 +1147,19 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E15" s="3">
         <v>5000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>400</v>
       </c>
       <c r="F15" s="3">
         <v>400</v>
@@ -1183,11 +1206,14 @@
       <c r="T15" s="3">
         <v>400</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>400</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>96200</v>
+      </c>
+      <c r="E17" s="3">
         <v>101700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>99500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>95800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>88300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>79700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>74400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>63300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>57900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>55500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>48400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>44100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>38200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>32700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>31300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>26300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>24900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>22900</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-52500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-63100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-61600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-56300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-49800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-41300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-44200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-37000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-36900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-34600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-24200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-18000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-16100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-14100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-9100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-13300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-13200</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,13 +1380,14 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E20" s="3">
         <v>300</v>
@@ -1362,111 +1396,117 @@
         <v>300</v>
       </c>
       <c r="G20" s="3">
+        <v>300</v>
+      </c>
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>900</v>
       </c>
       <c r="R20" s="3">
         <v>900</v>
       </c>
       <c r="S20" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T20" s="3">
         <v>800</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>800</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-46900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-57700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-56500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-52500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-46400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-38000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-41100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-33900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-33000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-29700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-18500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-11900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-13800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-16600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-11700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-6800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-11000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-10900</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,67 +1564,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-62800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-61400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-56000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-49300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-40600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-43500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-36000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-35000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-31700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-20600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-14000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-15700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-18400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-13300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-8300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-12500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-12400</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1594,8 +1640,8 @@
       <c r="E24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1604,20 +1650,20 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>1100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-300</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1633,8 +1679,8 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="S24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-62800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-61400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-56000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-49300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-40600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-44600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-36700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-33500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-31400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-20600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-14000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-15700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-18400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-13300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-8300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-12500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-12400</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-62700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-61400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-55900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-49300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-40600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-44600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-36700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-33500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-31400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-20600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-14000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-16400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-13200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-8300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-12500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-12400</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,13 +2122,16 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E32" s="3">
         <v>-300</v>
@@ -2070,111 +2140,117 @@
         <v>-300</v>
       </c>
       <c r="G32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1600</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-900</v>
       </c>
       <c r="R32" s="3">
         <v>-900</v>
       </c>
       <c r="S32" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="T32" s="3">
         <v>-800</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-62700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-61400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-55900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-49300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-40600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-44600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-36700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-33500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-31400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-20600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-14000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-16400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-13200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-12500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-12400</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-62700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-61400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-55900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-49300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-40600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-44600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-36700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-33500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-31400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-20600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-14000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-16400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-13200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-12500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-12400</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,53 +2487,54 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>76400</v>
+      </c>
+      <c r="E41" s="3">
         <v>114800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>139100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>122400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>184200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>173600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>123400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>497100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>365400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>212700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>96600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>74900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>48500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>111300</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2460,53 +2547,56 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>307300</v>
+      </c>
+      <c r="E42" s="3">
         <v>248800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>214000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>292600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>414200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>540600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>564800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>338000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>204900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>342500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>480300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>498500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>374500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>329200</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2519,53 +2609,56 @@
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E43" s="3">
         <v>22500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>17400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>17100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>14200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>19800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>11900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4100</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2578,53 +2671,56 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E44" s="3">
         <v>21000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>19300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>18200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>18600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>17400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>14100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>10700</v>
-      </c>
-      <c r="K44" s="3">
-        <v>10500</v>
       </c>
       <c r="L44" s="3">
         <v>10500</v>
       </c>
       <c r="M44" s="3">
+        <v>10500</v>
+      </c>
+      <c r="N44" s="3">
         <v>9100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>8700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>8000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7900</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2637,53 +2733,56 @@
       <c r="U44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E45" s="3">
         <v>12000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6800</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2696,53 +2795,56 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>438600</v>
+      </c>
+      <c r="E46" s="3">
         <v>419100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>402700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>467000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>643700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>765000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>726900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>877400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>599500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>584600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>612700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>601400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>442300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>459100</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2755,47 +2857,50 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>66900</v>
+      </c>
+      <c r="E47" s="3">
         <v>137100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>217100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>217400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>91100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>30700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>118500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>16500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>57400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>100600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>105400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>135300</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2814,53 +2919,56 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>171300</v>
+      </c>
+      <c r="E48" s="3">
         <v>171600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>172900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>177300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>167300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>144800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>139000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>68900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>64500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>56000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>60400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>46500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>22300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>21200</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2873,53 +2981,56 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>126700</v>
+      </c>
+      <c r="E49" s="3">
         <v>127100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>127500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>127900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>128400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>128800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>129200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>129600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>130100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>130500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>130900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>131300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>131800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>132200</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,53 +3167,56 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E52" s="3">
         <v>3300</v>
-      </c>
-      <c r="E52" s="3">
-        <v>3000</v>
       </c>
       <c r="F52" s="3">
         <v>3000</v>
       </c>
       <c r="G52" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="H52" s="3">
         <v>2900</v>
       </c>
       <c r="I52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J52" s="3">
         <v>2700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3100</v>
-      </c>
-      <c r="M52" s="3">
-        <v>2900</v>
       </c>
       <c r="N52" s="3">
         <v>2900</v>
       </c>
       <c r="O52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="P52" s="3">
         <v>5000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2100</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,53 +3291,56 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>806600</v>
+      </c>
+      <c r="E54" s="3">
         <v>858200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>923300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>992600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1033400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1072100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1116400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1095500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>854800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>874900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>912300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>917400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>601400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>614600</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3227,8 +3353,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,53 +3403,54 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E57" s="3">
         <v>6000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3300</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3332,8 +3463,11 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,53 +3525,56 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>108700</v>
+      </c>
+      <c r="E59" s="3">
         <v>109100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>110500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>114100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>110600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>101600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>102000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>95400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>89700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>74100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>73900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>71000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>71900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>60000</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3450,53 +3587,56 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>111500</v>
+      </c>
+      <c r="E60" s="3">
         <v>115100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>113800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>122400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>116600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>106800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>105200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>100800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>93400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>78000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>78300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>73400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>74900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>63300</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3509,8 +3649,11 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3542,20 +3685,20 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>36600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>23400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>400</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3568,53 +3711,56 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>176800</v>
+      </c>
+      <c r="E62" s="3">
         <v>189900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>205400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>218700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>223400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>239600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>268000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>219600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>231500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>245400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>226300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>234600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>246400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>263200</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,53 +3959,56 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>288300</v>
+      </c>
+      <c r="E66" s="3">
         <v>305000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>319400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>341100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>340200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>346500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>373100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>320400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>324900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>323300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>341300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>331500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>323800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>326800</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3863,8 +4021,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4043,14 +4211,14 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>561900</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>561200</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,53 +4293,56 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-833700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-781600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-718900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-657500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-601600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-552300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-511600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-467000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-430300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-396800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-365500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-344900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-330900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-314500</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4181,8 +4355,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,53 +4541,56 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>518300</v>
+      </c>
+      <c r="E76" s="3">
         <v>553200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>604000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>651500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>693200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>725600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>743300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>775000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>529900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>551600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>571000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>585900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-284400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-273500</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4417,8 +4603,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-62700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-61400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-55900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-49300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-40600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-44600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-36700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-33500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-31400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-20600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-14000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-16400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-13200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-12500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-12400</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,55 +4820,56 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E83" s="3">
         <v>5100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2100</v>
-      </c>
-      <c r="K83" s="3">
-        <v>2000</v>
       </c>
       <c r="L83" s="3">
         <v>2000</v>
       </c>
       <c r="M83" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="N83" s="3">
         <v>2100</v>
       </c>
       <c r="O83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P83" s="3">
         <v>1900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1600</v>
-      </c>
-      <c r="R83" s="3">
-        <v>1500</v>
       </c>
       <c r="S83" s="3">
         <v>1500</v>
@@ -4678,11 +4877,14 @@
       <c r="T83" s="3">
         <v>1500</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-47100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-64500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-53800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-43400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-37200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-58200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-39800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-47200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-31100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-31600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-26800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-30100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-16000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>278300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-11700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-9100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-6100</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-14600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-22000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-600</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E94" s="3">
         <v>37700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>67200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-21300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>41400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>93800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-340000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-97200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>177500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>142800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>46700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-260900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-45300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-222200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>27600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>5100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>4700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-36700</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>6300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>14600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>276000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>319600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>500</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-24000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>16700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-61800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>10600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>50200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-373600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>131600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>152800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>116100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>21600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>28600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-62800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>56300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>22500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-42300</v>
       </c>
-      <c r="U102" s="3" t="s">
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADPT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADPT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>ADPT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,296 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E8" s="3">
         <v>43700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>38600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>37900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>39500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>38500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>38400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>30200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>21000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>24200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>26100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>22100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12700</v>
-      </c>
-      <c r="R8" s="3">
-        <v>17200</v>
       </c>
       <c r="S8" s="3">
         <v>17200</v>
       </c>
       <c r="T8" s="3">
+        <v>17200</v>
+      </c>
+      <c r="U8" s="3">
         <v>11600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9700</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>13200</v>
+        <v>14900</v>
       </c>
       <c r="E9" s="3">
         <v>13200</v>
       </c>
       <c r="F9" s="3">
+        <v>13200</v>
+      </c>
+      <c r="G9" s="3">
         <v>14400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>14200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4000</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E10" s="3">
         <v>30500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>25400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>23500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>25300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>27700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>28400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>24000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>20200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>16100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>15600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>18200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>20500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>16400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>11900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>11800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5700</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,70 +977,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E12" s="3">
         <v>32800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>32600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>34700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>36100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>37800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>33800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>35800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>30300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>26000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>23900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>21200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>20500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>16500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>12500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>11100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>9800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>9500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>8900</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1097,11 +1117,11 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1600</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1117,8 +1137,8 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1150,19 +1170,22 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E15" s="3">
         <v>4700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>5000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>400</v>
       </c>
       <c r="G15" s="3">
         <v>400</v>
@@ -1209,11 +1232,14 @@
       <c r="U15" s="3">
         <v>400</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>400</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>93300</v>
+      </c>
+      <c r="E17" s="3">
         <v>96200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>101700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>99500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>95800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>88300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>79700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>74400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>63300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>57900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>55500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>48400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>44100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>38200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>32700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>31300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>26300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>24900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>22900</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-45500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-52500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-63100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-61600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-56300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-49800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-41300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-44200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-37000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-36900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-34600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-24200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-18000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-16100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-20000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-14100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-9100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-13300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-13200</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,16 +1414,17 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
-      </c>
-      <c r="E20" s="3">
-        <v>300</v>
       </c>
       <c r="F20" s="3">
         <v>300</v>
@@ -1399,137 +1433,143 @@
         <v>300</v>
       </c>
       <c r="H20" s="3">
+        <v>300</v>
+      </c>
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1600</v>
-      </c>
-      <c r="R20" s="3">
-        <v>900</v>
       </c>
       <c r="S20" s="3">
         <v>900</v>
       </c>
       <c r="T20" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="U20" s="3">
         <v>800</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>800</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-46900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-57700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-56500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-52500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-46400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-38000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-41100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-33900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-33000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-29700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-18500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-11900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-16600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-11700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-6800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-11000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-10900</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>700</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1567,70 +1607,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-52100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-62800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-61400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-56000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-49300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-40600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-43500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-36000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-35000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-31700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-20600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-14000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-15700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-18400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-13300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-8300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-12500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-12400</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1643,8 +1689,8 @@
       <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1653,20 +1699,20 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1682,8 +1728,8 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
+      <c r="T24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
@@ -1691,8 +1737,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-52100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-62800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-61400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-56000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-49300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-40600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-44600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-36700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-33500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-31400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-20600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-14000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-15700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-18400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-13300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-8300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-12500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-12400</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-52000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-62700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-61400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-55900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-49300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-40600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-44600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-36700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-33500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-31400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-20600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-14000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-18600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-13200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-8300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-12500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-12400</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,16 +2192,19 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-300</v>
       </c>
       <c r="F32" s="3">
         <v>-300</v>
@@ -2143,114 +2213,120 @@
         <v>-300</v>
       </c>
       <c r="H32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1600</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-900</v>
       </c>
       <c r="S32" s="3">
         <v>-900</v>
       </c>
       <c r="T32" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="U32" s="3">
         <v>-800</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-52000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-62700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-61400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-55900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-49300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-40600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-44600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-36700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-33500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-31400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-20600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-14000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-18600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-13200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-8300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-12500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-12400</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-52000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-62700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-61400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-55900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-49300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-40600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-44600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-36700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-33500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-31400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-20600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-14000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-18600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-13200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-8300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-12500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-12400</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,56 +2574,57 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>217600</v>
+      </c>
+      <c r="E41" s="3">
         <v>76400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>114800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>139100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>122400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>184200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>173600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>123400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>497100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>365400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>212700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>96600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>74900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>48500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>111300</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2550,56 +2637,59 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>290500</v>
+      </c>
+      <c r="E42" s="3">
         <v>307300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>248800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>214000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>292600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>414200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>540600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>564800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>338000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>204900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>342500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>480300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>498500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>374500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>329200</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2612,56 +2702,59 @@
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E43" s="3">
         <v>23700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>22500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>17400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>17100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>14200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>19800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>10000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>12700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4100</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2674,56 +2767,59 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E44" s="3">
         <v>18800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>21000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>19300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>18200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>18600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>17400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>14100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>10700</v>
-      </c>
-      <c r="L44" s="3">
-        <v>10500</v>
       </c>
       <c r="M44" s="3">
         <v>10500</v>
       </c>
       <c r="N44" s="3">
+        <v>10500</v>
+      </c>
+      <c r="O44" s="3">
         <v>9100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>8700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>8000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7900</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2736,56 +2832,59 @@
       <c r="V44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E45" s="3">
         <v>12300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>14100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6800</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2798,56 +2897,59 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>564400</v>
+      </c>
+      <c r="E46" s="3">
         <v>438600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>419100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>402700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>467000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>643700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>765000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>726900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>877400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>599500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>584600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>612700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>601400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>442300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>459100</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2860,50 +2962,53 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E47" s="3">
         <v>66900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>137100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>217100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>217400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>91100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>30700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>118500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>16500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>57400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>100600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>105400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>135300</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2922,56 +3027,59 @@
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>169300</v>
+      </c>
+      <c r="E48" s="3">
         <v>171300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>171600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>172900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>177300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>167300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>144800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>139000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>68900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>64500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>56000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>60400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>46500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>22300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>21200</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2984,56 +3092,59 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>126200</v>
+      </c>
+      <c r="E49" s="3">
         <v>126700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>127100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>127500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>127900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>128400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>128800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>129200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>129600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>130100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>130500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>130900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>131300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>131800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>132200</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,56 +3287,59 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E52" s="3">
         <v>3200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3300</v>
-      </c>
-      <c r="F52" s="3">
-        <v>3000</v>
       </c>
       <c r="G52" s="3">
         <v>3000</v>
       </c>
       <c r="H52" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="I52" s="3">
         <v>2900</v>
       </c>
       <c r="J52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K52" s="3">
         <v>2700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3100</v>
-      </c>
-      <c r="N52" s="3">
-        <v>2900</v>
       </c>
       <c r="O52" s="3">
         <v>2900</v>
       </c>
       <c r="P52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Q52" s="3">
         <v>5000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2100</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,56 +3417,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>884200</v>
+      </c>
+      <c r="E54" s="3">
         <v>806600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>858200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>923300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>992600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1033400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1072100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1116400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1095500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>854800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>874900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>912300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>917400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>601400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>614600</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3356,8 +3482,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,56 +3534,57 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E57" s="3">
         <v>2700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3300</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3466,8 +3597,11 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3528,56 +3662,59 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>99900</v>
+      </c>
+      <c r="E59" s="3">
         <v>108700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>109100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>110500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>114100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>110600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>101600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>102000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>95400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>89700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>74100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>73900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>71000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>71900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>60000</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3590,56 +3727,59 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E60" s="3">
         <v>111500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>115100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>113800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>122400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>116600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>106800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>105200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>100800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>93400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>78000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>78300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>73400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>74900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>63300</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3652,8 +3792,11 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3688,20 +3831,20 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>36600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>23400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>400</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3714,56 +3857,59 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>292400</v>
+      </c>
+      <c r="E62" s="3">
         <v>176800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>189900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>205400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>218700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>223400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>239600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>268000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>219600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>231500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>245400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>226300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>234600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>246400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>263200</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,56 +4117,59 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>396400</v>
+      </c>
+      <c r="E66" s="3">
         <v>288300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>305000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>319400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>341100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>340200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>346500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>373100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>320400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>324900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>323300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>341300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>331500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>323800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>326800</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4024,8 +4182,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4214,14 +4382,14 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>561900</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>561200</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,56 +4467,59 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-879000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-833700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-781600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-718900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-657500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-601600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-552300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-511600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-467000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-430300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-396800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-365500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-344900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-330900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-314500</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4358,8 +4532,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,56 +4727,59 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>487800</v>
+      </c>
+      <c r="E76" s="3">
         <v>518300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>553200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>604000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>651500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>693200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>725600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>743300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>775000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>529900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>551600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>571000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>585900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-284400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-273500</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4606,8 +4792,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-52000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-62700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-61400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-55900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-49300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-40600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-44600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-36700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-33500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-31400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-20600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-14000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-18600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-13200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-8300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-12500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-12400</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,58 +5019,59 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E83" s="3">
         <v>5200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2100</v>
-      </c>
-      <c r="L83" s="3">
-        <v>2000</v>
       </c>
       <c r="M83" s="3">
         <v>2000</v>
       </c>
       <c r="N83" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="O83" s="3">
         <v>2100</v>
       </c>
       <c r="P83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1600</v>
-      </c>
-      <c r="S83" s="3">
-        <v>1500</v>
       </c>
       <c r="T83" s="3">
         <v>1500</v>
@@ -4880,11 +5079,14 @@
       <c r="U83" s="3">
         <v>1500</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-47100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-64500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-53800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-43400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-37200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-58200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-39800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-47200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-31100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-31600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-26800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-30100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>278300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-11700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-9100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-6100</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5499,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-14600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-22000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-600</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E94" s="3">
         <v>4700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>37700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>67200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-21300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>41400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>93800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-340000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-97200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>177500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>142800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>46700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-260900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-45300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-222200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>27600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>5100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>4700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-36700</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6042,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>125500</v>
+      </c>
+      <c r="E100" s="3">
         <v>4000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>14600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>276000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>5000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>319600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>500</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6172,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>141100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-38300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-24000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>16700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-61800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>10600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>50200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-373600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>131600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>152800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>116100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>21600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>28600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-62800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>56300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>22500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-6500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-4000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-42300</v>
       </c>
-      <c r="V102" s="3" t="s">
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADPT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADPT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
   <si>
     <t>ADPT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,308 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E8" s="3">
         <v>47800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>43700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>38600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>37900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>39500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>38500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>38400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>30200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>26300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>21000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>20900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>24200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>26100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>22100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12700</v>
-      </c>
-      <c r="S8" s="3">
-        <v>17200</v>
       </c>
       <c r="T8" s="3">
         <v>17200</v>
       </c>
       <c r="U8" s="3">
+        <v>17200</v>
+      </c>
+      <c r="V8" s="3">
         <v>11600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9700</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E9" s="3">
         <v>14900</v>
-      </c>
-      <c r="E9" s="3">
-        <v>13200</v>
       </c>
       <c r="F9" s="3">
         <v>13200</v>
       </c>
       <c r="G9" s="3">
+        <v>13200</v>
+      </c>
+      <c r="H9" s="3">
         <v>14400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>14200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4000</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E10" s="3">
         <v>32900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>30500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>25400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>23500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>25300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>27700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>28400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>24000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>20200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>16100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>15600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>18200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>20500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>16400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>11900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>11800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5700</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E12" s="3">
         <v>30000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>32800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>32600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>34700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>36100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>37800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>33800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>35800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>30300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>26000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>23900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>21200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>20500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>16500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>12500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>11100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>9800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>9500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>8900</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,23 +1124,26 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1600</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1140,8 +1159,8 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1173,22 +1192,25 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>400</v>
+      </c>
+      <c r="E15" s="3">
         <v>6100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>5000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>400</v>
       </c>
       <c r="H15" s="3">
         <v>400</v>
@@ -1235,11 +1257,14 @@
       <c r="V15" s="3">
         <v>400</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>400</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>94400</v>
+      </c>
+      <c r="E17" s="3">
         <v>93300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>96200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>101700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>99500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>95800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>88300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>79700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>74400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>63300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>57900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>55500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>48400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>44100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>38200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>32700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>31300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>26300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>24900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>22900</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-39200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-45500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-52500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-63100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-61600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-56300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-49800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-41300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-44200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-37000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-36900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-34600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-24200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-16100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-20000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-14100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-9100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-13300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-13200</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,19 +1447,20 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
-      </c>
-      <c r="F20" s="3">
-        <v>300</v>
       </c>
       <c r="G20" s="3">
         <v>300</v>
@@ -1436,126 +1469,132 @@
         <v>300</v>
       </c>
       <c r="I20" s="3">
+        <v>300</v>
+      </c>
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1600</v>
-      </c>
-      <c r="S20" s="3">
-        <v>900</v>
       </c>
       <c r="T20" s="3">
         <v>900</v>
       </c>
       <c r="U20" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="V20" s="3">
         <v>800</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>800</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-39300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-46900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-57700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-56500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-52500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-46400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-38000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-41100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-33900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-33000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-29700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-18500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-13800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-16600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-11700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-6800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-11000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-10900</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1571,8 +1610,8 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1610,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-45300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-52100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-62800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-61400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-56000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-49300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-40600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-43500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-36000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-35000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-31700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-20600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-15700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-18400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-13300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-8300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-12500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-12400</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1692,8 +1737,8 @@
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1702,20 +1747,20 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>1100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-300</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1731,8 +1776,8 @@
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
+      <c r="U24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
@@ -1740,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-45300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-52100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-62800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-61400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-56000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-49300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-40600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-44600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-36700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-33500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-31400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-20600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-15700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-18400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-13300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-8300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-12500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-12400</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-40100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-45300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-52000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-62700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-61400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-55900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-49300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-40600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-44600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-36700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-33500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-31400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-20600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-16400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-18600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-13200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-8300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-12500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-12400</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,19 +2261,22 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-300</v>
       </c>
       <c r="G32" s="3">
         <v>-300</v>
@@ -2216,117 +2285,123 @@
         <v>-300</v>
       </c>
       <c r="I32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1600</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-900</v>
       </c>
       <c r="T32" s="3">
         <v>-900</v>
       </c>
       <c r="U32" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="V32" s="3">
         <v>-800</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-40100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-45300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-52000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-62700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-61400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-55900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-49300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-40600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-44600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-36700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-33500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-31400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-20600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-16400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-18600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-13200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-8300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-12500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-12400</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-40100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-45300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-52000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-62700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-61400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-55900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-49300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-40600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-44600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-36700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-33500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-31400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-20600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-16400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-18600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-13200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-8300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-12500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-12400</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,59 +2660,60 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E41" s="3">
         <v>217600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>76400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>114800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>139100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>122400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>184200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>173600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>123400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>497100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>365400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>212700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>96600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>74900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>48500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>111300</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2640,59 +2726,62 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>408200</v>
+      </c>
+      <c r="E42" s="3">
         <v>290500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>307300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>248800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>214000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>292600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>414200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>540600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>564800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>338000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>204900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>342500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>480300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>498500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>374500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>329200</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2705,59 +2794,62 @@
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>40100</v>
+      </c>
+      <c r="E43" s="3">
         <v>26500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>23700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>22500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>17400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>17100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>14200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>19800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>12700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4100</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2770,59 +2862,62 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E44" s="3">
         <v>17300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>18800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>21000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>19300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>18200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>18600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>17400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>14100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>10700</v>
-      </c>
-      <c r="M44" s="3">
-        <v>10500</v>
       </c>
       <c r="N44" s="3">
         <v>10500</v>
       </c>
       <c r="O44" s="3">
+        <v>10500</v>
+      </c>
+      <c r="P44" s="3">
         <v>9100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>8700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>8000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7900</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2835,59 +2930,62 @@
       <c r="W44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E45" s="3">
         <v>12400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>19700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>14100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6800</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2900,59 +2998,62 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>562100</v>
+      </c>
+      <c r="E46" s="3">
         <v>564400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>438600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>419100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>402700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>467000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>643700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>765000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>726900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>877400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>599500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>584600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>612700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>601400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>442300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>459100</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2965,53 +3066,56 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>19700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>66900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>137100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>217100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>217400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>91100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>30700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>118500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>16500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>57400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>100600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>105400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>135300</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,59 +3134,62 @@
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>164200</v>
+      </c>
+      <c r="E48" s="3">
         <v>169300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>171300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>171600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>172900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>177300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>167300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>144800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>139000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>68900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>64500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>56000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>60400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>46500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>22300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>21200</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,59 +3202,62 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>125800</v>
+      </c>
+      <c r="E49" s="3">
         <v>126200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>126700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>127100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>127500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>127900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>128400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>128800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>129200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>129600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>130100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>130500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>130900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>131300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>131800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>132200</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3160,8 +3270,11 @@
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,59 +3406,62 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E52" s="3">
         <v>4600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3300</v>
-      </c>
-      <c r="G52" s="3">
-        <v>3000</v>
       </c>
       <c r="H52" s="3">
         <v>3000</v>
       </c>
       <c r="I52" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="J52" s="3">
         <v>2900</v>
       </c>
       <c r="K52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L52" s="3">
         <v>2700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3100</v>
-      </c>
-      <c r="O52" s="3">
-        <v>2900</v>
       </c>
       <c r="P52" s="3">
         <v>2900</v>
       </c>
       <c r="Q52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="R52" s="3">
         <v>5000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2100</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3355,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,59 +3542,62 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>856600</v>
+      </c>
+      <c r="E54" s="3">
         <v>884200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>806600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>858200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>923300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>992600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1033400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1072100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1116400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1095500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>854800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>874900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>912300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>917400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>601400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>614600</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3485,8 +3610,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,59 +3664,60 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E57" s="3">
         <v>4200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3300</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3600,8 +3730,11 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3665,59 +3798,62 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>101700</v>
+      </c>
+      <c r="E59" s="3">
         <v>99900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>108700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>109100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>110500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>114100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>110600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>101600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>102000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>95400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>89700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>74100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>73900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>71000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>71900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>60000</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3730,59 +3866,62 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>109800</v>
+      </c>
+      <c r="E60" s="3">
         <v>104000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>111500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>115100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>113800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>122400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>116600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>106800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>105200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>100800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>93400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>78000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>78300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>73400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>74900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>63300</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3795,16 +3934,19 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>125400</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>124600</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3834,20 +3976,20 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>36600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>23400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>400</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -3860,59 +4002,62 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>292400</v>
+        <v>157400</v>
       </c>
       <c r="E62" s="3">
+        <v>167800</v>
+      </c>
+      <c r="F62" s="3">
         <v>176800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>189900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>205400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>218700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>223400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>239600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>268000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>219600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>231500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>245400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>226300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>234600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>246400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>263200</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3925,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,59 +4274,62 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>392500</v>
+      </c>
+      <c r="E66" s="3">
         <v>396400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>288300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>305000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>319400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>341100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>340200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>346500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>373100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>320400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>324900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>323300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>341300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>331500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>323800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>326800</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4185,8 +4342,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4385,14 +4552,14 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>561900</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>561200</v>
       </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
       <c r="T70" s="3">
         <v>0</v>
       </c>
@@ -4405,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,59 +4640,62 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-919100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-879000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-833700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-781600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-718900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-657500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-601600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-552300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-511600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-467000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-430300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-396800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-365500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-344900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-330900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-314500</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4535,8 +4708,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,59 +4912,62 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>464200</v>
+      </c>
+      <c r="E76" s="3">
         <v>487800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>518300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>553200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>604000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>651500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>693200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>725600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>743300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>775000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>529900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>551600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>571000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>585900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-284400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-273500</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4795,8 +4980,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-40100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-45300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-52000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-62700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-61400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-55900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-49300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-40600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-44600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-36700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-33500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-31400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-20600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-16400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-18600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-13200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-8300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-12500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-12400</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,61 +5217,62 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E83" s="3">
         <v>5400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2100</v>
-      </c>
-      <c r="M83" s="3">
-        <v>2000</v>
       </c>
       <c r="N83" s="3">
         <v>2000</v>
       </c>
       <c r="O83" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="P83" s="3">
         <v>2100</v>
       </c>
       <c r="Q83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R83" s="3">
         <v>1900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1600</v>
-      </c>
-      <c r="T83" s="3">
-        <v>1500</v>
       </c>
       <c r="U83" s="3">
         <v>1500</v>
@@ -5082,11 +5280,14 @@
       <c r="V83" s="3">
         <v>1500</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-42400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-47100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-64500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-53800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-43400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-37200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-58200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-39800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-47200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-31100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-31600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-26800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-30100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-16000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>278300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-5400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-11700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-9100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-6100</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-14600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-22000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-600</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-97500</v>
+      </c>
+      <c r="E94" s="3">
         <v>58000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>4700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>37700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>67200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-21300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>41400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>93800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-340000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-97200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>177500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>142800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>46700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-260900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-45300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-222200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>27600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>5100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>4700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-36700</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>125500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>14600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>276000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>5000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>319600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>500</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-127600</v>
+      </c>
+      <c r="E102" s="3">
         <v>141100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-38300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-24000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>16700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-61800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>10600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>50200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-373600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>131600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>152800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>116100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>21600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>28600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-62800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>56300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>22500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-6500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-4000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-42300</v>
       </c>
-      <c r="W102" s="3" t="s">
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADPT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADPT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>ADPT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,321 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E8" s="3">
         <v>55200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>47800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>43700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>38600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>37900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>39500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>38500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>38400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>30200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>26300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>21000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>20900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>24200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>26100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>22100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12700</v>
-      </c>
-      <c r="T8" s="3">
-        <v>17200</v>
       </c>
       <c r="U8" s="3">
         <v>17200</v>
       </c>
       <c r="V8" s="3">
+        <v>17200</v>
+      </c>
+      <c r="W8" s="3">
         <v>11600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9700</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E9" s="3">
         <v>16600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>14900</v>
-      </c>
-      <c r="F9" s="3">
-        <v>13200</v>
       </c>
       <c r="G9" s="3">
         <v>13200</v>
       </c>
       <c r="H9" s="3">
+        <v>13200</v>
+      </c>
+      <c r="I9" s="3">
         <v>14400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>14200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4000</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E10" s="3">
         <v>38600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>32900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>30500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>25400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>23500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>25300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>27700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>28400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>24000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>20200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>16100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>15600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>18200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>20500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>16400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>11900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>11800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5700</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,76 +1004,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>31200</v>
+        <v>28800</v>
       </c>
       <c r="E12" s="3">
+        <v>27300</v>
+      </c>
+      <c r="F12" s="3">
         <v>30000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>32800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>32600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>34700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>36100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>37800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>33800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>35800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>30300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>26000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>23900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>21200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>20500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>16500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>12500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>11100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>9800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>9500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>8900</v>
       </c>
-      <c r="X12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1142,11 +1162,11 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1600</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1162,8 +1182,8 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1195,25 +1215,28 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>400</v>
+        <v>4200</v>
       </c>
       <c r="E15" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F15" s="3">
         <v>6100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>5000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>400</v>
       </c>
       <c r="I15" s="3">
         <v>400</v>
@@ -1260,11 +1283,14 @@
       <c r="W15" s="3">
         <v>400</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>94800</v>
+      </c>
+      <c r="E17" s="3">
         <v>94400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>93300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>96200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>101700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>99500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>95800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>88300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>79700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>74400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>63300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>57900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>55500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>48400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>44100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>38200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>32700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>31300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>26300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>24900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>22900</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-39200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-45500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-52500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-63100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-61600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-56300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-49800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-41300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-44200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-37000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-36900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-34600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-24200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-18000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-16100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-20000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-14100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-9100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-13300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-13200</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,22 +1481,23 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E20" s="3">
         <v>2600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
-      </c>
-      <c r="G20" s="3">
-        <v>300</v>
       </c>
       <c r="H20" s="3">
         <v>300</v>
@@ -1472,132 +1506,138 @@
         <v>300</v>
       </c>
       <c r="J20" s="3">
+        <v>300</v>
+      </c>
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1600</v>
-      </c>
-      <c r="T20" s="3">
-        <v>900</v>
       </c>
       <c r="U20" s="3">
         <v>900</v>
       </c>
       <c r="V20" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="W20" s="3">
         <v>800</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-31300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-39300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-46900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-57700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-56500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-52500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-46400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-38000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-41100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-33900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-33000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-29700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-18500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-11900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-13800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-16600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-11700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-6800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-11000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-10900</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E22" s="3">
         <v>3600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1613,8 +1653,8 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1652,76 +1692,82 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-57700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-40200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-45300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-52100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-62800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-61400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-56000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-49300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-40600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-43500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-36000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-35000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-31700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-20600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-14000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-15700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-18400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-13300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-8300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-12500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-12400</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1740,8 +1786,8 @@
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1750,20 +1796,20 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-300</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1779,8 +1825,8 @@
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
+      <c r="V24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-57700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-40200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-45300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-52100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-62800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-61400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-56000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-49300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-40600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-44600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-36700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-33500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-31400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-20600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-14000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-15700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-18400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-13300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-8300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-12500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-12400</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-57700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-40100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-45300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-52000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-62700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-61400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-55900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-49300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-40600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-44600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-36700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-33500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-31400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-20600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-14000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-16400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-18600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-13200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-8300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-12500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-12400</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,22 +2331,25 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-300</v>
       </c>
       <c r="H32" s="3">
         <v>-300</v>
@@ -2288,120 +2358,126 @@
         <v>-300</v>
       </c>
       <c r="J32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1600</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-900</v>
       </c>
       <c r="U32" s="3">
         <v>-900</v>
       </c>
       <c r="V32" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="W32" s="3">
         <v>-800</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-57700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-40100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-45300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-52000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-62700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-61400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-55900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-49300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-40600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-44600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-36700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-33500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-31400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-20600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-14000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-16400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-18600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-13200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-8300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-12500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-12400</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-57700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-40100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-45300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-52000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-62700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-61400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-55900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-49300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-40600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-44600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-36700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-33500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-31400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-20600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-14000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-16400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-18600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-13200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-8300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-12500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-12400</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,62 +2747,63 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>94600</v>
+      </c>
+      <c r="E41" s="3">
         <v>90000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>217600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>76400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>114800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>139100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>122400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>184200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>173600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>123400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>497100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>365400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>212700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>96600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>74900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>48500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>111300</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2729,62 +2816,65 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>346100</v>
+      </c>
+      <c r="E42" s="3">
         <v>408200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>290500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>307300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>248800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>214000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>292600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>414200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>540600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>564800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>338000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>204900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>342500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>480300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>498500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>374500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>329200</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2797,62 +2887,65 @@
       <c r="X42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E43" s="3">
         <v>40100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>26500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>23700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>22500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>17400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>17100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>14200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>19800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>12700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4100</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2865,62 +2958,65 @@
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E44" s="3">
         <v>14500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>17300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>18800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>21000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>19300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>18200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>18600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>17400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>14100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>10700</v>
-      </c>
-      <c r="N44" s="3">
-        <v>10500</v>
       </c>
       <c r="O44" s="3">
         <v>10500</v>
       </c>
       <c r="P44" s="3">
+        <v>10500</v>
+      </c>
+      <c r="Q44" s="3">
         <v>9100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>8700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>8000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>7900</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2933,62 +3029,65 @@
       <c r="X44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E45" s="3">
         <v>9400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>19700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>14100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>10000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>6800</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3001,62 +3100,65 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>501300</v>
+      </c>
+      <c r="E46" s="3">
         <v>562100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>564400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>438600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>419100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>402700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>467000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>643700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>765000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>726900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>877400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>599500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>584600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>612700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>601400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>442300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>459100</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3069,56 +3171,59 @@
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>19700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>66900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>137100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>217100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>217400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>91100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>30700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>118500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>16500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>57400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>100600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>105400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>135300</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3137,62 +3242,65 @@
       <c r="X47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>160300</v>
+      </c>
+      <c r="E48" s="3">
         <v>164200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>169300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>171300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>171600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>172900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>177300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>167300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>144800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>139000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>68900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>64500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>56000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>60400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>46500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>22300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>21200</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3205,62 +3313,65 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>125400</v>
+      </c>
+      <c r="E49" s="3">
         <v>125800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>126200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>126700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>127100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>127500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>127900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>128400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>128800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>129200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>129600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>130100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>130500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>130900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>131300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>131800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>132200</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3418,53 +3538,53 @@
         <v>4500</v>
       </c>
       <c r="E52" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F52" s="3">
         <v>4600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3300</v>
-      </c>
-      <c r="H52" s="3">
-        <v>3000</v>
       </c>
       <c r="I52" s="3">
         <v>3000</v>
       </c>
       <c r="J52" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="K52" s="3">
         <v>2900</v>
       </c>
       <c r="L52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="M52" s="3">
         <v>2700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3100</v>
-      </c>
-      <c r="P52" s="3">
-        <v>2900</v>
       </c>
       <c r="Q52" s="3">
         <v>2900</v>
       </c>
       <c r="R52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="S52" s="3">
         <v>5000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2100</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,62 +3668,65 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>791500</v>
+      </c>
+      <c r="E54" s="3">
         <v>856600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>884200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>806600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>858200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>923300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>992600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1033400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1072100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1116400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1095500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>854800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>874900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>912300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>917400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>601400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>614600</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3613,8 +3739,11 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,62 +3795,63 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E57" s="3">
         <v>8100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3300</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3733,8 +3864,11 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,62 +3935,65 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>83800</v>
+      </c>
+      <c r="E59" s="3">
         <v>101700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>99900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>108700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>109100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>110500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>114100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>110600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>101600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>102000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>95400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>89700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>74100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>73900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>71000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>71900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>60000</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3869,62 +4006,65 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>90100</v>
+      </c>
+      <c r="E60" s="3">
         <v>109800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>104000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>111500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>115100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>113800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>122400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>116600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>106800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>105200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>100800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>93400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>78000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>78300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>73400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>74900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>63300</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3937,16 +4077,19 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>125400</v>
+        <v>127000</v>
       </c>
       <c r="E61" s="3">
-        <v>124600</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3979,20 +4122,20 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>36600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>23400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>400</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4005,62 +4148,65 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>157400</v>
+        <v>150400</v>
       </c>
       <c r="E62" s="3">
-        <v>167800</v>
+        <v>282700</v>
       </c>
       <c r="F62" s="3">
+        <v>292400</v>
+      </c>
+      <c r="G62" s="3">
         <v>176800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>189900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>205400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>218700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>223400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>239600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>268000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>219600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>231500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>245400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>226300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>234600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>246400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>263200</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,62 +4432,65 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>367400</v>
+      </c>
+      <c r="E66" s="3">
         <v>392500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>396400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>288300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>305000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>319400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>341100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>340200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>346500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>373100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>320400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>324900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>323300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>341300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>331500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>323800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>326800</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4345,8 +4503,11 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4555,14 +4723,14 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>561900</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>561200</v>
       </c>
-      <c r="T70" s="3">
-        <v>0</v>
-      </c>
       <c r="U70" s="3">
         <v>0</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,62 +4814,65 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-976800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-919100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-879000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-833700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-781600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-718900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-657500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-601600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-552300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-511600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-467000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-430300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-396800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-365500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-344900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-330900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-314500</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4711,8 +4885,11 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,62 +5098,65 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>424000</v>
+      </c>
+      <c r="E76" s="3">
         <v>464200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>487800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>518300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>553200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>604000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>651500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>693200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>725600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>743300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>775000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>529900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>551600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>571000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>585900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-284400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-273500</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4983,8 +5169,11 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-57700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-40100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-45300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-52000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-62700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-61400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-55900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-49300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-40600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-44600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-36700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-33500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-31400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-20600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-14000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-16400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-18600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-13200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-8300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-12500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-12400</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,64 +5416,65 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E83" s="3">
         <v>5300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2100</v>
-      </c>
-      <c r="N83" s="3">
-        <v>2000</v>
       </c>
       <c r="O83" s="3">
         <v>2000</v>
       </c>
       <c r="P83" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="Q83" s="3">
         <v>2100</v>
       </c>
       <c r="R83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="S83" s="3">
         <v>1900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1600</v>
-      </c>
-      <c r="U83" s="3">
-        <v>1500</v>
       </c>
       <c r="V83" s="3">
         <v>1500</v>
@@ -5283,11 +5482,14 @@
       <c r="W83" s="3">
         <v>1500</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-59200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-30000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-42400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-47100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-64500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-53800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-43400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-37200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-58200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-39800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-47200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-31100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-31600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-26800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-30100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-16000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>278300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-5400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-11700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-9100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-6100</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5940,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-14600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-22000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-600</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-97500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>58000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>4700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>37700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>67200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-21300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>41400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>93800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-340000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-97200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>177500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>142800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>46700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-260900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-45300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-222200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>27600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>5100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>4700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-36700</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6533,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>125500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>14600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>276000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>6300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>5000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>319600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>500</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-127600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>141100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-38300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-24000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>16700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-61800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>10600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>50200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-373600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>131600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>152800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>116100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>21600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>28600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-62800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>56300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>22500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-6500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-4000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-42300</v>
       </c>
-      <c r="X102" s="3" t="s">
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADPT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADPT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
   <si>
     <t>ADPT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,334 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>48900</v>
+      </c>
+      <c r="E8" s="3">
         <v>37600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>55200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>47800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>43700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>38600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>37900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>39500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>38500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>38400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>30200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>26300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>21000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>20900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>24200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>26100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>22100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12700</v>
-      </c>
-      <c r="U8" s="3">
-        <v>17200</v>
       </c>
       <c r="V8" s="3">
         <v>17200</v>
       </c>
       <c r="W8" s="3">
+        <v>17200</v>
+      </c>
+      <c r="X8" s="3">
         <v>11600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9700</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E9" s="3">
         <v>18700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>16600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>14900</v>
-      </c>
-      <c r="G9" s="3">
-        <v>13200</v>
       </c>
       <c r="H9" s="3">
         <v>13200</v>
       </c>
       <c r="I9" s="3">
+        <v>13200</v>
+      </c>
+      <c r="J9" s="3">
         <v>14400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>14200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>5000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4000</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E10" s="3">
         <v>18900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>38600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>32900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>30500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>25400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>23500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>25300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>27700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>28400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>24000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>20200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>16100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>15600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>18200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>20500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>16400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>11900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>11800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>5700</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,79 +1018,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E12" s="3">
         <v>28800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>27300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>30000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>32800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>32600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>34700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>36100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>37800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>33800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>35800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>30300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>26000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>23900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>21200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>20500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>16500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>12500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>11100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>9800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>9500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>8900</v>
       </c>
-      <c r="Y12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,16 +1164,19 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1165,11 +1185,11 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1600</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1185,8 +1205,8 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1218,28 +1238,31 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E15" s="3">
         <v>4200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>6100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>5000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>400</v>
       </c>
       <c r="J15" s="3">
         <v>400</v>
@@ -1286,11 +1309,14 @@
       <c r="X15" s="3">
         <v>400</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>96700</v>
+      </c>
+      <c r="E17" s="3">
         <v>94800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>94400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>93300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>96200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>101700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>99500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>95800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>88300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>79700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>74400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>63300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>57900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>55500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>48400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>44100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>38200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>32700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>31300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>26300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>24900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>22900</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-47800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-57200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-39200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-45500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-52500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-63100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-61600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-56300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-49800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-41300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-44200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-37000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-36900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-34600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-24200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-18000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-16100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-20000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-14100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-9100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-13300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-13200</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,25 +1515,26 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E20" s="3">
         <v>3100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
-      </c>
-      <c r="H20" s="3">
-        <v>300</v>
       </c>
       <c r="I20" s="3">
         <v>300</v>
@@ -1509,138 +1543,144 @@
         <v>300</v>
       </c>
       <c r="K20" s="3">
+        <v>300</v>
+      </c>
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1600</v>
-      </c>
-      <c r="U20" s="3">
-        <v>900</v>
       </c>
       <c r="V20" s="3">
         <v>900</v>
       </c>
       <c r="W20" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="X20" s="3">
         <v>800</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-38600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-48700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-31300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-39300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-46900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-57700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-56500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-52500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-46400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-38000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-41100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-33900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-33000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-29700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-18500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-11900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-13800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-16600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-11700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-6800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-11000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-10900</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E22" s="3">
         <v>3500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1656,8 +1696,8 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1695,79 +1735,85 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-47800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-57700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-40200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-45300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-52100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-62800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-61400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-56000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-49300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-40600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-43500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-36000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-35000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-31700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-20600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-14000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-15700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-18400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-13300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-8300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-12500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-12400</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1789,8 +1835,8 @@
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1799,20 +1845,20 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-300</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1828,8 +1874,8 @@
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
+      <c r="W24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X24" s="3">
         <v>0</v>
@@ -1837,8 +1883,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-47800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-57700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-40200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-45300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-52100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-62800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-61400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-56000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-49300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-40600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-44600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-36700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-33500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-31400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-20600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-14000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-15700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-18400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-13300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-8300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-12500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-12400</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-47800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-57700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-40100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-45300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-52000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-62700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-61400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-55900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-49300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-40600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-44600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-36700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-33500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-31400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-20600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-14000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-16400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-18600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-13200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-8300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-12500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-12400</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,25 +2401,28 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-300</v>
       </c>
       <c r="I32" s="3">
         <v>-300</v>
@@ -2361,123 +2431,129 @@
         <v>-300</v>
       </c>
       <c r="K32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1600</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-900</v>
       </c>
       <c r="V32" s="3">
         <v>-900</v>
       </c>
       <c r="W32" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="X32" s="3">
         <v>-800</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-47800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-57700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-40100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-45300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-52000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-62700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-61400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-55900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-49300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-40600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-44600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-36700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-33500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-31400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-20600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-14000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-16400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-18600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-13200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-8300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-12500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-12400</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-47800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-57700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-40100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-45300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-52000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-62700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-61400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-55900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-49300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-40600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-44600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-36700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-33500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-31400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-20600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-14000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-16400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-18600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-13200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-8300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-12500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-12400</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,65 +2834,66 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>109200</v>
+      </c>
+      <c r="E41" s="3">
         <v>94600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>90000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>217600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>76400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>114800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>139100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>122400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>184200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>173600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>123400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>497100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>365400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>212700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>96600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>74900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>48500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>111300</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2819,65 +2906,68 @@
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>308000</v>
+      </c>
+      <c r="E42" s="3">
         <v>346100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>408200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>290500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>307300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>248800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>214000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>292600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>414200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>540600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>564800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>338000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>204900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>342500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>480300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>498500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>374500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>329200</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2890,65 +2980,68 @@
       <c r="Y42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E43" s="3">
         <v>31000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>40100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>26500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>23700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>22500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>17400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>17100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>14200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>19800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>11900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>12700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4100</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2961,65 +3054,68 @@
       <c r="Y43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E44" s="3">
         <v>19900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>14500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>17300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>18800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>21000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>19300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>18200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>18600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>17400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>14100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>10700</v>
-      </c>
-      <c r="O44" s="3">
-        <v>10500</v>
       </c>
       <c r="P44" s="3">
         <v>10500</v>
       </c>
       <c r="Q44" s="3">
+        <v>10500</v>
+      </c>
+      <c r="R44" s="3">
         <v>9100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>8700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>8000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>7900</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3032,65 +3128,68 @@
       <c r="Y44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E45" s="3">
         <v>9800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>19700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>14100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>10000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>6800</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3103,65 +3202,68 @@
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>476800</v>
+      </c>
+      <c r="E46" s="3">
         <v>501300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>562100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>564400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>438600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>419100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>402700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>467000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>643700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>765000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>726900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>877400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>599500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>584600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>612700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>601400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>442300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>459100</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3174,59 +3276,62 @@
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>19700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>66900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>137100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>217100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>217400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>91100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>30700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>118500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>16500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>57400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>100600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>105400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>135300</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3245,65 +3350,68 @@
       <c r="Y47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>156500</v>
+      </c>
+      <c r="E48" s="3">
         <v>160300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>164200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>169300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>171300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>171600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>172900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>177300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>167300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>144800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>139000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>68900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>64500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>56000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>60400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>46500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>22300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>21200</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3316,65 +3424,68 @@
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E49" s="3">
         <v>125400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>125800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>126200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>126700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>127100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>127500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>127900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>128400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>128800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>129200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>129600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>130100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>130500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>130900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>131300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>131800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>132200</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,65 +3646,68 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4500</v>
+        <v>6300</v>
       </c>
       <c r="E52" s="3">
         <v>4500</v>
       </c>
       <c r="F52" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G52" s="3">
         <v>4600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3300</v>
-      </c>
-      <c r="I52" s="3">
-        <v>3000</v>
       </c>
       <c r="J52" s="3">
         <v>3000</v>
       </c>
       <c r="K52" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="L52" s="3">
         <v>2900</v>
       </c>
       <c r="M52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N52" s="3">
         <v>2700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3100</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>2900</v>
       </c>
       <c r="R52" s="3">
         <v>2900</v>
       </c>
       <c r="S52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="T52" s="3">
         <v>5000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2100</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3600,8 +3720,11 @@
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,65 +3794,68 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>764500</v>
+      </c>
+      <c r="E54" s="3">
         <v>791500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>856600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>884200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>806600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>858200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>923300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>992600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1033400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1072100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1116400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1095500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>854800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>874900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>912300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>917400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>601400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>614600</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3742,8 +3868,11 @@
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,65 +3926,66 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E57" s="3">
         <v>6300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3300</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3867,8 +3998,11 @@
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3938,65 +4072,68 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>86200</v>
+      </c>
+      <c r="E59" s="3">
         <v>83800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>101700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>99900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>108700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>109100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>110500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>114100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>110600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>101600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>102000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>95400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>89700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>74100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>73900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>71000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>71900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>60000</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4009,65 +4146,68 @@
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>95300</v>
+      </c>
+      <c r="E60" s="3">
         <v>90100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>109800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>104000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>111500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>115100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>113800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>122400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>116600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>106800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>105200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>100800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>93400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>78000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>78300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>73400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>74900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>63300</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4080,22 +4220,25 @@
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>128200</v>
+      </c>
+      <c r="E61" s="3">
         <v>127000</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>124600</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -4125,20 +4268,20 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>36600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>23400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>400</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4151,65 +4294,68 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>145100</v>
+      </c>
+      <c r="E62" s="3">
         <v>150400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>282700</v>
       </c>
-      <c r="F62" s="3">
-        <v>292400</v>
-      </c>
       <c r="G62" s="3">
+        <v>167800</v>
+      </c>
+      <c r="H62" s="3">
         <v>176800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>189900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>205400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>218700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>223400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>239600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>268000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>219600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>231500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>245400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>226300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>234600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>246400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>263200</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,65 +4590,68 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>368500</v>
+      </c>
+      <c r="E66" s="3">
         <v>367400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>392500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>396400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>288300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>305000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>319400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>341100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>340200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>346500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>373100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>320400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>324900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>323300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>341300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>331500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>323800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>326800</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4506,8 +4664,11 @@
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4726,14 +4894,14 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
         <v>561900</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>561200</v>
       </c>
-      <c r="U70" s="3">
-        <v>0</v>
-      </c>
       <c r="V70" s="3">
         <v>0</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,65 +4988,68 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1024600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-976800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-919100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-879000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-833700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-781600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-718900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-657500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-601600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-552300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-511600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-467000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-430300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-396800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-365500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-344900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-330900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-314500</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4888,8 +5062,11 @@
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,65 +5284,68 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>396000</v>
+      </c>
+      <c r="E76" s="3">
         <v>424000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>464200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>487800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>518300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>553200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>604000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>651500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>693200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>725600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>743300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>775000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>529900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>551600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>571000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>585900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-284400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-273500</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5172,8 +5358,11 @@
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-47800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-57700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-40100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-45300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-52000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-62700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-61400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-55900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-49300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-40600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-44600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-36700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-33500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-31400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-20600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-14000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-16400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-18600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-13200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-8300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-12500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-12400</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,67 +5615,68 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E83" s="3">
         <v>5400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2100</v>
-      </c>
-      <c r="O83" s="3">
-        <v>2000</v>
       </c>
       <c r="P83" s="3">
         <v>2000</v>
       </c>
       <c r="Q83" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="R83" s="3">
         <v>2100</v>
       </c>
       <c r="S83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="T83" s="3">
         <v>1900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1600</v>
-      </c>
-      <c r="V83" s="3">
-        <v>1500</v>
       </c>
       <c r="W83" s="3">
         <v>1500</v>
@@ -5485,11 +5684,14 @@
       <c r="X83" s="3">
         <v>1500</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Z83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-59200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-30000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-42400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-47100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-64500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-53800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-43400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-37200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-58200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-39800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-47200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-31100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-31600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-26800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-30100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-16000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>278300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-5400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-11700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-9100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-6100</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6161,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-14600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-22000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-600</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6381,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E94" s="3">
         <v>63000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-97500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>58000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>4700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>37700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>67200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-21300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>41400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>93800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-340000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-97200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>177500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>142800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>46700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-260900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-45300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-222200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>27600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>5100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>4700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-36700</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +6779,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>125500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>14600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>276000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>6300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>5000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>319600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>500</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +6927,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E102" s="3">
         <v>4500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-127600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>141100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-38300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-24000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>16700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-61800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>10600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>50200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-373600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>131600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>152800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>116100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>21600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>28600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-62800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>56300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>22500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-6500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-4000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-42300</v>
       </c>
-      <c r="Y102" s="3" t="s">
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADPT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADPT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
   <si>
     <t>ADPT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,347 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E8" s="3">
         <v>48900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>37600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>55200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>47800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>43700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>38600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>37900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>39500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>38500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>38400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>30200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>26300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>21000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>20900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>24200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>26100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>22100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>12700</v>
-      </c>
-      <c r="V8" s="3">
-        <v>17200</v>
       </c>
       <c r="W8" s="3">
         <v>17200</v>
       </c>
       <c r="X8" s="3">
+        <v>17200</v>
+      </c>
+      <c r="Y8" s="3">
         <v>11600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9700</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E9" s="3">
         <v>17900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>18700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>16600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>14900</v>
-      </c>
-      <c r="H9" s="3">
-        <v>13200</v>
       </c>
       <c r="I9" s="3">
         <v>13200</v>
       </c>
       <c r="J9" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K9" s="3">
         <v>14400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>5400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>5000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4000</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E10" s="3">
         <v>31000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>18900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>38600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>32900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>30500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>25400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>23500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>25300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>27700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>28400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>24000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>20200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>16100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>15600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>18200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>20500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>16400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>11900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>11800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>5700</v>
       </c>
-      <c r="Z10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,82 +1032,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E12" s="3">
         <v>29500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>28800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>27300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>30000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>32800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>32600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>34700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>36100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>37800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>33800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>35800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>30300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>26000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>23900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>21200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>20500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>16500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>12500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>11100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>9800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>9500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>8900</v>
       </c>
-      <c r="Z12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1184,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1178,8 +1198,8 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1188,11 +1208,11 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1600</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1208,8 +1228,8 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1241,31 +1261,34 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E15" s="3">
         <v>3200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>6100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>5000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>400</v>
       </c>
       <c r="K15" s="3">
         <v>400</v>
@@ -1312,11 +1335,14 @@
       <c r="Y15" s="3">
         <v>400</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1366,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>88900</v>
+      </c>
+      <c r="E17" s="3">
         <v>96700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>94800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>94400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>93300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>96200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>101700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>99500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>95800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>88300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>79700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>74400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>63300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>57900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>55500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>48400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>44100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>38200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>32700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>31300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>26300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>24900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>22900</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-47800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-57200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-39200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-45500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-52500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-63100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-61600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-56300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-49800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-41300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-44200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-37000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-36900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-34600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-24200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-18000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-16100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-20000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-14100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-9100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-13300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-13200</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,28 +1549,29 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E20" s="3">
         <v>3600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>300</v>
       </c>
       <c r="J20" s="3">
         <v>300</v>
@@ -1546,144 +1580,150 @@
         <v>300</v>
       </c>
       <c r="L20" s="3">
+        <v>300</v>
+      </c>
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1600</v>
-      </c>
-      <c r="V20" s="3">
-        <v>900</v>
       </c>
       <c r="W20" s="3">
         <v>900</v>
       </c>
       <c r="X20" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="Y20" s="3">
         <v>800</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-40900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-38600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-48700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-31300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-39300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-46900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-57700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-56500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-52500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-46400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-38000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-41100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-33900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-33000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-29700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-18500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-11900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-13800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-16600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-11700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-6800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-11000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-10900</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E22" s="3">
         <v>3600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1699,8 +1739,8 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1738,82 +1778,88 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-50300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-47800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-57700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-40200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-45300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-52100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-62800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-61400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-56000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-49300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-40600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-43500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-36000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-31700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-20600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-14000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-15700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-18400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-13300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-8300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-12500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-12400</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1838,8 +1884,8 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1848,20 +1894,20 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>1100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-300</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,8 +1923,8 @@
       <c r="W24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
+      <c r="X24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y24" s="3">
         <v>0</v>
@@ -1886,8 +1932,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2009,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-50300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-47800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-57700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-40200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-45300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-52100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-62800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-61400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-56000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-49300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-40600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-44600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-36700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-33500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-31400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-20600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-14000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-15700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-18400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-13300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-8300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-12500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-12400</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-50300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-47800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-57700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-40100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-45300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-52000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-62700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-61400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-55900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-49300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-40600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-44600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-36700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-33500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-31400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-20600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-14000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-16400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-18600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-13200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-8300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-12500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-12400</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,28 +2471,31 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-300</v>
       </c>
       <c r="J32" s="3">
         <v>-300</v>
@@ -2434,126 +2504,132 @@
         <v>-300</v>
       </c>
       <c r="L32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1600</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-900</v>
       </c>
       <c r="W32" s="3">
         <v>-900</v>
       </c>
       <c r="X32" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="Y32" s="3">
         <v>-800</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-50300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-47800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-57700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-40100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-45300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-52000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-62700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-61400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-55900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-49300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-40600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-44600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-36700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-33500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-31400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-20600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-14000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-16400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-18600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-13200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-8300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-12500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-12400</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2702,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-50300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-47800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-57700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-40100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-45300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-52000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-62700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-61400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-55900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-49300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-40600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-44600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-36700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-33500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-31400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-20600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-14000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-16400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-18600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-13200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-8300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-12500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-12400</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,68 +2921,69 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>88700</v>
+      </c>
+      <c r="E41" s="3">
         <v>109200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>94600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>90000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>217600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>76400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>114800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>139100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>122400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>184200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>173600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>123400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>497100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>365400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>212700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>96600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>74900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>48500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>111300</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2909,68 +2996,71 @@
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>282400</v>
+      </c>
+      <c r="E42" s="3">
         <v>308000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>346100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>408200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>290500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>307300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>248800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>214000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>292600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>414200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>540600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>564800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>338000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>204900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>342500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>480300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>498500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>374500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>329200</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2983,68 +3073,71 @@
       <c r="Z42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E43" s="3">
         <v>31500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>31000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>40100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>26500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>23700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>22500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>17400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>17100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>14200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>19800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>10000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>11900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>12700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4100</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3057,68 +3150,71 @@
       <c r="Z43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E44" s="3">
         <v>19000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>19900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>14500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>17300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>18800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>21000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>19300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>18200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>18600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>17400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>14100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>10700</v>
-      </c>
-      <c r="P44" s="3">
-        <v>10500</v>
       </c>
       <c r="Q44" s="3">
         <v>10500</v>
       </c>
       <c r="R44" s="3">
+        <v>10500</v>
+      </c>
+      <c r="S44" s="3">
         <v>9100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>8700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>8000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>7900</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3131,68 +3227,71 @@
       <c r="Z44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E45" s="3">
         <v>9100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>13500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>14500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>19700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>14100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>10000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>6800</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3205,68 +3304,71 @@
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>435200</v>
+      </c>
+      <c r="E46" s="3">
         <v>476800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>501300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>562100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>564400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>438600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>419100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>402700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>467000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>643700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>765000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>726900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>877400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>599500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>584600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>612700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>601400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>442300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>459100</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3279,8 +3381,11 @@
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3290,51 +3395,51 @@
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>19700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>66900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>137100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>217100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>217400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>91100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>30700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>118500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>16500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>57400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>100600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>105400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>135300</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3353,68 +3458,71 @@
       <c r="Z47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>152000</v>
+      </c>
+      <c r="E48" s="3">
         <v>156500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>160300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>164200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>169300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>171300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>171600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>172900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>177300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>167300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>144800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>139000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>68900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>64500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>56000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>60400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>46500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>22300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>21200</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3427,68 +3535,71 @@
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>124500</v>
+      </c>
+      <c r="E49" s="3">
         <v>125000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>125400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>125800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>126200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>126700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>127100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>127500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>127900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>128400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>128800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>129200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>129600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>130100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>130500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>130900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>131300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>131800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>132200</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3501,8 +3612,11 @@
       <c r="Z49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,68 +3766,71 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E52" s="3">
         <v>6300</v>
-      </c>
-      <c r="E52" s="3">
-        <v>4500</v>
       </c>
       <c r="F52" s="3">
         <v>4500</v>
       </c>
       <c r="G52" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H52" s="3">
         <v>4600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3300</v>
-      </c>
-      <c r="J52" s="3">
-        <v>3000</v>
       </c>
       <c r="K52" s="3">
         <v>3000</v>
       </c>
       <c r="L52" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="M52" s="3">
         <v>2900</v>
       </c>
       <c r="N52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O52" s="3">
         <v>2700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3100</v>
-      </c>
-      <c r="R52" s="3">
-        <v>2900</v>
       </c>
       <c r="S52" s="3">
         <v>2900</v>
       </c>
       <c r="T52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="U52" s="3">
         <v>5000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2100</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3723,8 +3843,11 @@
       <c r="Z52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,68 +3920,71 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>717700</v>
+      </c>
+      <c r="E54" s="3">
         <v>764500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>791500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>856600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>884200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>806600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>858200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>923300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>992600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1033400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1072100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1116400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1095500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>854800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>874900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>912300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>917400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>601400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>614600</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3871,8 +3997,11 @@
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,68 +4057,69 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E57" s="3">
         <v>9200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3300</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4001,8 +4132,11 @@
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4075,68 +4209,71 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>88800</v>
+      </c>
+      <c r="E59" s="3">
         <v>86200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>83800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>101700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>99900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>108700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>109100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>110500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>114100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>110600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>101600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>102000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>95400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>89700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>74100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>73900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>71000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>71900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>60000</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4149,68 +4286,71 @@
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>93300</v>
+      </c>
+      <c r="E60" s="3">
         <v>95300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>90100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>109800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>104000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>111500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>115100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>113800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>122400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>116600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>106800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>105200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>100800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>93400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>78000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>78300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>73400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>74900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>63300</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4223,22 +4363,25 @@
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>128200</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>127000</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>124600</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -4271,20 +4414,20 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>36600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>23400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>400</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4297,68 +4440,71 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>145100</v>
+        <v>262700</v>
       </c>
       <c r="E62" s="3">
-        <v>150400</v>
+        <v>273200</v>
       </c>
       <c r="F62" s="3">
+        <v>277400</v>
+      </c>
+      <c r="G62" s="3">
         <v>282700</v>
       </c>
-      <c r="G62" s="3">
-        <v>167800</v>
-      </c>
       <c r="H62" s="3">
+        <v>292400</v>
+      </c>
+      <c r="I62" s="3">
         <v>176800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>189900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>205400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>218700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>223400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>239600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>268000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>219600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>231500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>245400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>226300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>234600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>246400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>263200</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4371,8 +4517,11 @@
       <c r="Z62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,68 +4748,71 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>356000</v>
+      </c>
+      <c r="E66" s="3">
         <v>368500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>367400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>392500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>396400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>288300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>305000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>319400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>341100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>340200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>346500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>373100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>320400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>324900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>323300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>341300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>331500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>323800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>326800</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4667,8 +4825,11 @@
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4897,14 +5065,14 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
         <v>561900</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>561200</v>
       </c>
-      <c r="V70" s="3">
-        <v>0</v>
-      </c>
       <c r="W70" s="3">
         <v>0</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,68 +5162,71 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1074900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1024600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-976800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-919100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-879000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-833700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-781600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-718900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-657500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-601600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-552300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-511600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-467000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-430300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-396800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-365500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-344900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-330900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-314500</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5065,8 +5239,11 @@
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,68 +5470,71 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>361700</v>
+      </c>
+      <c r="E76" s="3">
         <v>396000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>424000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>464200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>487800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>518300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>553200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>604000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>651500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>693200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>725600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>743300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>775000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>529900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>551600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>571000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>585900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-284400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-273500</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5361,8 +5547,11 @@
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5624,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-50300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-47800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-57700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-40100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-45300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-52000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-62700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-61400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-55900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-49300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-40600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-44600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-36700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-33500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-31400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-20600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-14000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-16400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-18600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-13200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-8300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-12500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-12400</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,70 +5814,71 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E83" s="3">
         <v>5700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2100</v>
-      </c>
-      <c r="P83" s="3">
-        <v>2000</v>
       </c>
       <c r="Q83" s="3">
         <v>2000</v>
       </c>
       <c r="R83" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="S83" s="3">
         <v>2100</v>
       </c>
       <c r="T83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="U83" s="3">
         <v>1900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1600</v>
-      </c>
-      <c r="W83" s="3">
-        <v>1500</v>
       </c>
       <c r="X83" s="3">
         <v>1500</v>
@@ -5687,11 +5886,14 @@
       <c r="Y83" s="3">
         <v>1500</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AA83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6274,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-23600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-59200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-30000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-42400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-47100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-64500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-53800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-43400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-37200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-58200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-39800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-47200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-31100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-31600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-26800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-30100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-16000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>278300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-5400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-11700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-9100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-6100</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,82 +6382,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-14600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-22000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-600</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6611,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E94" s="3">
         <v>37300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>63000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-97500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>58000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>4700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>37700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>67200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-21300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>41400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>93800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-340000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-97200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>177500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>142800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>46700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-260900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-45300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-222200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>27600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>5100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>4700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-36700</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6719,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6794,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,82 +7025,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>1500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>125500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>14600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>6300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>276000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>6300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>5000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>319600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>500</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,78 +7179,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="E102" s="3">
         <v>15200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-127600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>141100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-38300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-24000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>16700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-61800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>10600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>50200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-373600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>131600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>152800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>116100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>21600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>28600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-62800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>56300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>22500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-6500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-42300</v>
       </c>
-      <c r="Z102" s="3" t="s">
+      <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
